--- a/data/获取数据/政策导向指标/非国企20年数据/873576.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/873576.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="202">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>天力复合</t>
   </si>
   <si>
-    <t>873576</t>
-  </si>
-  <si>
     <t>2021-04-28</t>
   </si>
   <si>
@@ -584,6 +608,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-07-11</t>
+  </si>
+  <si>
+    <t>陕西省财政厅</t>
+  </si>
+  <si>
+    <t>西北有色金属研究院</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -941,13 +977,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M176"/>
+  <dimension ref="A1:V177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,16 +1023,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>873576</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>5.81</v>
@@ -1029,56 +1092,44 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>8.81</v>
-      </c>
-      <c r="E3">
-        <v>8.81</v>
-      </c>
-      <c r="F3">
-        <v>8.81</v>
-      </c>
-      <c r="G3">
-        <v>8.81</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2000</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>873576</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>199</v>
+      </c>
+      <c r="R3">
+        <v>4823</v>
+      </c>
+      <c r="S3">
+        <v>45.08</v>
+      </c>
+      <c r="T3" t="s">
+        <v>200</v>
+      </c>
+      <c r="U3" t="s">
+        <v>201</v>
+      </c>
+      <c r="V3">
+        <v>36.82995785861668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>873576</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>8.81</v>
@@ -1093,10 +1144,10 @@
         <v>8.81</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1111,15 +1162,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>873576</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>8.81</v>
@@ -1134,320 +1185,320 @@
         <v>8.81</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>873576</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>8.81</v>
+      </c>
+      <c r="E6">
+        <v>8.81</v>
+      </c>
+      <c r="F6">
+        <v>8.81</v>
+      </c>
+      <c r="G6">
+        <v>8.81</v>
+      </c>
+      <c r="H6">
         <v>33</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>32520</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>873576</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <v>6.62</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>6.62</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>6.62</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>6.62</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>750</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>-24.86</v>
-      </c>
-      <c r="L6">
-        <v>-2.19</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>6.63</v>
-      </c>
-      <c r="E7">
-        <v>6.63</v>
-      </c>
-      <c r="F7">
-        <v>6.63</v>
-      </c>
-      <c r="G7">
-        <v>6.63</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
+        <v>750</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>-24.86</v>
+      </c>
+      <c r="L7">
+        <v>-2.19</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>873576</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>6.63</v>
+      </c>
+      <c r="E8">
+        <v>6.63</v>
+      </c>
+      <c r="F8">
+        <v>6.63</v>
+      </c>
+      <c r="G8">
+        <v>6.63</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>751</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0.15</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>0.01</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>873576</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>8.119999999999999</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>8.619999999999999</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>8.619999999999999</v>
-      </c>
-      <c r="G8">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>2750</v>
-      </c>
-      <c r="J8">
-        <v>7.54</v>
-      </c>
-      <c r="K8">
-        <v>30.02</v>
-      </c>
-      <c r="L8">
-        <v>1.99</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>9.07</v>
-      </c>
-      <c r="E9">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="F9">
-        <v>9.119999999999999</v>
       </c>
       <c r="G9">
         <v>8.119999999999999</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>2750</v>
+      </c>
+      <c r="J9">
+        <v>7.54</v>
+      </c>
+      <c r="K9">
+        <v>30.02</v>
+      </c>
+      <c r="L9">
+        <v>1.99</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>873576</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>9.07</v>
+      </c>
+      <c r="E10">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="F10">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="G10">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="H10">
         <v>26</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>25784</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>11.6</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>-5.8</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>-0.5</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>873576</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
         <v>3.63</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>8.890000000000001</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>9.1</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>3.63</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>3405</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>67.36</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>9.48</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>0.77</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>873576</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
         <v>8.119999999999999</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>7.19</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>8.119999999999999</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>7.19</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>1707</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>10.46</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>-19.12</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>-1.7</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="E12">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="F12">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="G12">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="H12">
-        <v>25</v>
-      </c>
-      <c r="I12">
-        <v>25000</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>26.84</v>
-      </c>
-      <c r="L12">
-        <v>1.93</v>
-      </c>
       <c r="M12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>873576</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>9.119999999999999</v>
@@ -1462,33 +1513,33 @@
         <v>9.119999999999999</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I13">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.84</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>873576</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>9.119999999999999</v>
@@ -1503,10 +1554,10 @@
         <v>9.119999999999999</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1521,15 +1572,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>873576</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>9.119999999999999</v>
@@ -1562,42 +1613,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>873576</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>9.220000000000001</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="E16">
-        <v>9.220000000000001</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="F16">
-        <v>9.220000000000001</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="G16">
-        <v>9.220000000000001</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>11110</v>
+        <v>1000</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1605,122 +1656,122 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>873576</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>10.13</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E17">
-        <v>10.13</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="F17">
-        <v>10.13</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="G17">
-        <v>10.13</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I17">
-        <v>22020</v>
+        <v>11110</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.869999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="L17">
-        <v>0.91</v>
+        <v>0.1</v>
       </c>
       <c r="M17">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>873576</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>11.12</v>
+        <v>10.13</v>
       </c>
       <c r="E18">
-        <v>11.12</v>
+        <v>10.13</v>
       </c>
       <c r="F18">
-        <v>11.12</v>
+        <v>10.13</v>
       </c>
       <c r="G18">
-        <v>11.12</v>
+        <v>10.13</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I18">
-        <v>3600</v>
+        <v>22020</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.77</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="L18">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>873576</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>12.12</v>
+        <v>11.12</v>
       </c>
       <c r="E19">
-        <v>13.12</v>
+        <v>11.12</v>
       </c>
       <c r="F19">
-        <v>13.12</v>
+        <v>11.12</v>
       </c>
       <c r="G19">
-        <v>12.12</v>
+        <v>11.12</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>8274</v>
+        <v>3600</v>
       </c>
       <c r="J19">
-        <v>8.99</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>17.99</v>
+        <v>9.77</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>0.99</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1728,57 +1779,57 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>873576</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20">
+        <v>12.12</v>
+      </c>
+      <c r="E20">
         <v>13.12</v>
       </c>
-      <c r="E20">
-        <v>14.12</v>
-      </c>
       <c r="F20">
-        <v>14.12</v>
+        <v>13.12</v>
       </c>
       <c r="G20">
-        <v>13.12</v>
+        <v>12.12</v>
       </c>
       <c r="H20">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>34530</v>
+        <v>8274</v>
       </c>
       <c r="J20">
-        <v>7.62</v>
+        <v>8.99</v>
       </c>
       <c r="K20">
-        <v>7.62</v>
+        <v>17.99</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>873576</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>14.12</v>
+        <v>13.12</v>
       </c>
       <c r="E21">
         <v>14.12</v>
@@ -1787,227 +1838,227 @@
         <v>14.12</v>
       </c>
       <c r="G21">
-        <v>14.12</v>
+        <v>13.12</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I21">
-        <v>15000</v>
+        <v>34530</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.62</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>7.62</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>873576</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>14.18</v>
+        <v>14.12</v>
       </c>
       <c r="E22">
-        <v>13.32</v>
+        <v>14.12</v>
       </c>
       <c r="F22">
-        <v>14.18</v>
+        <v>14.12</v>
       </c>
       <c r="G22">
-        <v>13.32</v>
+        <v>14.12</v>
       </c>
       <c r="H22">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="I22">
-        <v>332050</v>
+        <v>15000</v>
       </c>
       <c r="J22">
-        <v>6.09</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>-5.67</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>873576</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>13.62</v>
+        <v>14.18</v>
       </c>
       <c r="E23">
-        <v>13.62</v>
+        <v>13.32</v>
       </c>
       <c r="F23">
-        <v>13.62</v>
+        <v>14.18</v>
       </c>
       <c r="G23">
-        <v>13.62</v>
+        <v>13.32</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="I23">
-        <v>290</v>
+        <v>332050</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.09</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>-5.67</v>
       </c>
       <c r="L23">
-        <v>0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>873576</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>14.12</v>
+        <v>13.62</v>
       </c>
       <c r="E24">
-        <v>14.11</v>
+        <v>13.62</v>
       </c>
       <c r="F24">
-        <v>14.12</v>
+        <v>13.62</v>
       </c>
       <c r="G24">
-        <v>14.11</v>
+        <v>13.62</v>
       </c>
       <c r="H24">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>127490</v>
+        <v>290</v>
       </c>
       <c r="J24">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="M24">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>873576</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>13.12</v>
+        <v>14.12</v>
       </c>
       <c r="E25">
-        <v>13.92</v>
+        <v>14.11</v>
       </c>
       <c r="F25">
-        <v>13.92</v>
+        <v>14.12</v>
       </c>
       <c r="G25">
-        <v>13.12</v>
+        <v>14.11</v>
       </c>
       <c r="H25">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I25">
-        <v>46394</v>
+        <v>127490</v>
       </c>
       <c r="J25">
-        <v>5.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K25">
-        <v>-1.35</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
-        <v>-0.19</v>
+        <v>0.49</v>
       </c>
       <c r="M25">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>873576</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>14.12</v>
+        <v>13.12</v>
       </c>
       <c r="E26">
-        <v>14.12</v>
+        <v>13.92</v>
       </c>
       <c r="F26">
-        <v>14.12</v>
+        <v>13.92</v>
       </c>
       <c r="G26">
-        <v>14.12</v>
+        <v>13.12</v>
       </c>
       <c r="H26">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I26">
-        <v>60000</v>
+        <v>46394</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>5.67</v>
       </c>
       <c r="K26">
-        <v>1.44</v>
+        <v>-1.35</v>
       </c>
       <c r="L26">
-        <v>0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="M26">
         <v>0.01</v>
@@ -2015,13 +2066,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>873576</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27">
         <v>14.12</v>
@@ -2036,33 +2087,33 @@
         <v>14.12</v>
       </c>
       <c r="H27">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="I27">
-        <v>96000</v>
+        <v>60000</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M27">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>873576</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D28">
         <v>14.12</v>
@@ -2077,10 +2128,10 @@
         <v>14.12</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="I28">
-        <v>7500</v>
+        <v>96000</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2092,168 +2143,168 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>873576</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>15.12</v>
+        <v>14.12</v>
       </c>
       <c r="E29">
-        <v>15.12</v>
+        <v>14.12</v>
       </c>
       <c r="F29">
-        <v>15.12</v>
+        <v>14.12</v>
       </c>
       <c r="G29">
-        <v>15.12</v>
+        <v>14.12</v>
       </c>
       <c r="H29">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>132800</v>
+        <v>7500</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>7.08</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>873576</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D30">
         <v>15.12</v>
       </c>
       <c r="E30">
-        <v>16.12</v>
+        <v>15.12</v>
       </c>
       <c r="F30">
-        <v>16.12</v>
+        <v>15.12</v>
       </c>
       <c r="G30">
         <v>15.12</v>
       </c>
       <c r="H30">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I30">
-        <v>34350</v>
+        <v>132800</v>
       </c>
       <c r="J30">
-        <v>6.61</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>6.61</v>
+        <v>7.08</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>873576</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>15.13</v>
+        <v>15.12</v>
       </c>
       <c r="E31">
-        <v>16</v>
+        <v>16.12</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>16.12</v>
       </c>
       <c r="G31">
-        <v>15.13</v>
+        <v>15.12</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I31">
-        <v>4890</v>
+        <v>34350</v>
       </c>
       <c r="J31">
-        <v>5.4</v>
+        <v>6.61</v>
       </c>
       <c r="K31">
-        <v>-0.74</v>
+        <v>6.61</v>
       </c>
       <c r="L31">
-        <v>-0.12</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>873576</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>15.62</v>
+        <v>15.13</v>
       </c>
       <c r="E32">
-        <v>15.62</v>
+        <v>16</v>
       </c>
       <c r="F32">
-        <v>15.62</v>
+        <v>16</v>
       </c>
       <c r="G32">
-        <v>15.62</v>
+        <v>15.13</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32">
-        <v>4570</v>
+        <v>4890</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="K32">
-        <v>-2.38</v>
+        <v>-0.74</v>
       </c>
       <c r="L32">
-        <v>-0.38</v>
+        <v>-0.12</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2261,95 +2312,95 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>873576</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>16.12</v>
+        <v>15.62</v>
       </c>
       <c r="E33">
-        <v>16.12</v>
+        <v>15.62</v>
       </c>
       <c r="F33">
-        <v>16.12</v>
+        <v>15.62</v>
       </c>
       <c r="G33">
-        <v>16.12</v>
+        <v>15.62</v>
       </c>
       <c r="H33">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>164900</v>
+        <v>4570</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>3.2</v>
+        <v>-2.38</v>
       </c>
       <c r="L33">
-        <v>0.5</v>
+        <v>-0.38</v>
       </c>
       <c r="M33">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>873576</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>17.12</v>
+        <v>16.12</v>
       </c>
       <c r="E34">
-        <v>17.12</v>
+        <v>16.12</v>
       </c>
       <c r="F34">
-        <v>17.12</v>
+        <v>16.12</v>
       </c>
       <c r="G34">
-        <v>17.12</v>
+        <v>16.12</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="I34">
-        <v>18000</v>
+        <v>164900</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>873576</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D35">
         <v>17.12</v>
@@ -2364,19 +2415,19 @@
         <v>17.12</v>
       </c>
       <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>18000</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>6.2</v>
+      </c>
+      <c r="L35">
         <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1800</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2384,122 +2435,122 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>873576</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>17.12</v>
       </c>
       <c r="E36">
-        <v>17.62</v>
+        <v>17.12</v>
       </c>
       <c r="F36">
-        <v>17.62</v>
+        <v>17.12</v>
       </c>
       <c r="G36">
         <v>17.12</v>
       </c>
       <c r="H36">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>97526</v>
+        <v>1800</v>
       </c>
       <c r="J36">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>873576</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>17.72</v>
+        <v>17.12</v>
       </c>
       <c r="E37">
-        <v>17.72</v>
+        <v>17.62</v>
       </c>
       <c r="F37">
-        <v>17.72</v>
+        <v>17.62</v>
       </c>
       <c r="G37">
-        <v>17.72</v>
+        <v>17.12</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="I37">
-        <v>9300</v>
+        <v>97526</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="K37">
-        <v>0.57</v>
+        <v>2.92</v>
       </c>
       <c r="L37">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>873576</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>17.92</v>
+        <v>17.72</v>
       </c>
       <c r="E38">
-        <v>17.92</v>
+        <v>17.72</v>
       </c>
       <c r="F38">
-        <v>17.92</v>
+        <v>17.72</v>
       </c>
       <c r="G38">
-        <v>17.92</v>
+        <v>17.72</v>
       </c>
       <c r="H38">
         <v>5</v>
       </c>
       <c r="I38">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1.13</v>
+        <v>0.57</v>
       </c>
       <c r="L38">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2507,116 +2558,116 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>873576</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>18.12</v>
+        <v>17.92</v>
       </c>
       <c r="E39">
-        <v>18.32</v>
+        <v>17.92</v>
       </c>
       <c r="F39">
-        <v>18.32</v>
+        <v>17.92</v>
       </c>
       <c r="G39">
-        <v>18.12</v>
+        <v>17.92</v>
       </c>
       <c r="H39">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="I39">
-        <v>191920</v>
+        <v>9400</v>
       </c>
       <c r="J39">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>2.23</v>
+        <v>1.13</v>
       </c>
       <c r="L39">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M39">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>873576</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>18.22</v>
+        <v>18.12</v>
       </c>
       <c r="E40">
-        <v>18.22</v>
+        <v>18.32</v>
       </c>
       <c r="F40">
-        <v>18.22</v>
+        <v>18.32</v>
       </c>
       <c r="G40">
-        <v>18.22</v>
+        <v>18.12</v>
       </c>
       <c r="H40">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I40">
-        <v>57300</v>
+        <v>191920</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="K40">
-        <v>-0.55</v>
+        <v>2.23</v>
       </c>
       <c r="L40">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
       <c r="M40">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>873576</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D41">
-        <v>18.32</v>
+        <v>18.22</v>
       </c>
       <c r="E41">
-        <v>18.12</v>
+        <v>18.22</v>
       </c>
       <c r="F41">
-        <v>18.32</v>
+        <v>18.22</v>
       </c>
       <c r="G41">
-        <v>18.12</v>
+        <v>18.22</v>
       </c>
       <c r="H41">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I41">
-        <v>21080</v>
+        <v>57300</v>
       </c>
       <c r="J41">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>-0.55</v>
@@ -2625,45 +2676,45 @@
         <v>-0.1</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>873576</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>17.12</v>
+        <v>18.32</v>
       </c>
       <c r="E42">
-        <v>17.12</v>
+        <v>18.12</v>
       </c>
       <c r="F42">
-        <v>17.12</v>
+        <v>18.32</v>
       </c>
       <c r="G42">
-        <v>17.12</v>
+        <v>18.12</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I42">
-        <v>2340</v>
+        <v>21080</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K42">
-        <v>-5.52</v>
+        <v>-0.55</v>
       </c>
       <c r="L42">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2671,286 +2722,286 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>873576</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D43">
-        <v>16.62</v>
+        <v>17.12</v>
       </c>
       <c r="E43">
-        <v>16.62</v>
+        <v>17.12</v>
       </c>
       <c r="F43">
-        <v>16.62</v>
+        <v>17.12</v>
       </c>
       <c r="G43">
-        <v>16.62</v>
+        <v>17.12</v>
       </c>
       <c r="H43">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>92750</v>
+        <v>2340</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>-2.92</v>
+        <v>-5.52</v>
       </c>
       <c r="L43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="M43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>873576</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D44">
         <v>16.62</v>
       </c>
       <c r="E44">
-        <v>16.92</v>
+        <v>16.62</v>
       </c>
       <c r="F44">
-        <v>16.92</v>
+        <v>16.62</v>
       </c>
       <c r="G44">
         <v>16.62</v>
       </c>
       <c r="H44">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="I44">
-        <v>173340</v>
+        <v>92750</v>
       </c>
       <c r="J44">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>1.81</v>
+        <v>-2.92</v>
       </c>
       <c r="L44">
-        <v>0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="M44">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>873576</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>17.02</v>
+        <v>16.62</v>
       </c>
       <c r="E45">
-        <v>17.02</v>
+        <v>16.92</v>
       </c>
       <c r="F45">
-        <v>17.02</v>
+        <v>16.92</v>
       </c>
       <c r="G45">
-        <v>17.02</v>
+        <v>16.62</v>
       </c>
       <c r="H45">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I45">
-        <v>46540</v>
+        <v>173340</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="K45">
-        <v>0.59</v>
+        <v>1.81</v>
       </c>
       <c r="L45">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="M45">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>873576</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D46">
         <v>17.02</v>
       </c>
       <c r="E46">
-        <v>15.12</v>
+        <v>17.02</v>
       </c>
       <c r="F46">
         <v>17.02</v>
       </c>
       <c r="G46">
-        <v>15.12</v>
+        <v>17.02</v>
       </c>
       <c r="H46">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I46">
-        <v>88950</v>
+        <v>46540</v>
       </c>
       <c r="J46">
-        <v>11.16</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>-11.16</v>
+        <v>0.59</v>
       </c>
       <c r="L46">
-        <v>-1.9</v>
+        <v>0.1</v>
       </c>
       <c r="M46">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>873576</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D47">
-        <v>16.62</v>
+        <v>17.02</v>
       </c>
       <c r="E47">
-        <v>16.12</v>
+        <v>15.12</v>
       </c>
       <c r="F47">
-        <v>16.62</v>
+        <v>17.02</v>
       </c>
       <c r="G47">
-        <v>16.12</v>
+        <v>15.12</v>
       </c>
       <c r="H47">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="I47">
-        <v>176590</v>
+        <v>88950</v>
       </c>
       <c r="J47">
-        <v>3.31</v>
+        <v>11.16</v>
       </c>
       <c r="K47">
-        <v>6.61</v>
+        <v>-11.16</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>-1.9</v>
       </c>
       <c r="M47">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>873576</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D48">
         <v>16.62</v>
       </c>
       <c r="E48">
-        <v>16.62</v>
+        <v>16.12</v>
       </c>
       <c r="F48">
         <v>16.62</v>
       </c>
       <c r="G48">
-        <v>16.62</v>
+        <v>16.12</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="I48">
-        <v>8750</v>
+        <v>176590</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="K48">
-        <v>3.1</v>
+        <v>6.61</v>
       </c>
       <c r="L48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>873576</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D49">
-        <v>16.45</v>
+        <v>16.62</v>
       </c>
       <c r="E49">
-        <v>16.45</v>
+        <v>16.62</v>
       </c>
       <c r="F49">
-        <v>16.45</v>
+        <v>16.62</v>
       </c>
       <c r="G49">
-        <v>16.45</v>
+        <v>16.62</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I49">
-        <v>1733</v>
+        <v>8750</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>-1.02</v>
+        <v>3.1</v>
       </c>
       <c r="L49">
-        <v>-0.17</v>
+        <v>0.5</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -2958,40 +3009,40 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>873576</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D50">
-        <v>16.62</v>
+        <v>16.45</v>
       </c>
       <c r="E50">
-        <v>16.62</v>
+        <v>16.45</v>
       </c>
       <c r="F50">
-        <v>16.62</v>
+        <v>16.45</v>
       </c>
       <c r="G50">
-        <v>16.62</v>
+        <v>16.45</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>8750</v>
+        <v>1733</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1.03</v>
+        <v>-1.02</v>
       </c>
       <c r="L50">
-        <v>0.17</v>
+        <v>-0.17</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -2999,40 +3050,40 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>873576</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D51">
-        <v>16.12</v>
+        <v>16.62</v>
       </c>
       <c r="E51">
-        <v>16.12</v>
+        <v>16.62</v>
       </c>
       <c r="F51">
-        <v>16.12</v>
+        <v>16.62</v>
       </c>
       <c r="G51">
-        <v>16.12</v>
+        <v>16.62</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>3791</v>
+        <v>8750</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>-3.01</v>
+        <v>1.03</v>
       </c>
       <c r="L51">
-        <v>-0.5</v>
+        <v>0.17</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -3040,40 +3091,40 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>873576</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D52">
-        <v>16.62</v>
+        <v>16.12</v>
       </c>
       <c r="E52">
-        <v>16.6</v>
+        <v>16.12</v>
       </c>
       <c r="F52">
-        <v>16.62</v>
+        <v>16.12</v>
       </c>
       <c r="G52">
-        <v>16.6</v>
+        <v>16.12</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>8742</v>
+        <v>3791</v>
       </c>
       <c r="J52">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>2.98</v>
+        <v>-3.01</v>
       </c>
       <c r="L52">
-        <v>0.48</v>
+        <v>-0.5</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -3081,40 +3132,40 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>873576</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D53">
-        <v>16.12</v>
+        <v>16.62</v>
       </c>
       <c r="E53">
-        <v>16.12</v>
+        <v>16.6</v>
       </c>
       <c r="F53">
-        <v>16.12</v>
+        <v>16.62</v>
       </c>
       <c r="G53">
-        <v>16.12</v>
+        <v>16.6</v>
       </c>
       <c r="H53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I53">
-        <v>17000</v>
+        <v>8742</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="K53">
-        <v>-2.89</v>
+        <v>2.98</v>
       </c>
       <c r="L53">
-        <v>-0.48</v>
+        <v>0.48</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -3122,40 +3173,40 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>873576</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D54">
-        <v>15.12</v>
+        <v>16.12</v>
       </c>
       <c r="E54">
-        <v>15.12</v>
+        <v>16.12</v>
       </c>
       <c r="F54">
-        <v>15.12</v>
+        <v>16.12</v>
       </c>
       <c r="G54">
-        <v>15.12</v>
+        <v>16.12</v>
       </c>
       <c r="H54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I54">
-        <v>14880</v>
+        <v>17000</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>-6.2</v>
+        <v>-2.89</v>
       </c>
       <c r="L54">
-        <v>-1</v>
+        <v>-0.48</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3163,13 +3214,13 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>873576</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D55">
         <v>15.12</v>
@@ -3184,19 +3235,19 @@
         <v>15.12</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I55">
-        <v>19200</v>
+        <v>14880</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>-6.2</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3204,13 +3255,13 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>873576</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D56">
         <v>15.12</v>
@@ -3225,10 +3276,10 @@
         <v>15.12</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I56">
-        <v>1600</v>
+        <v>19200</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3245,13 +3296,13 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>873576</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D57">
         <v>15.12</v>
@@ -3266,10 +3317,10 @@
         <v>15.12</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3286,40 +3337,40 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>873576</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D58">
-        <v>11.72</v>
+        <v>15.12</v>
       </c>
       <c r="E58">
-        <v>14.92</v>
+        <v>15.12</v>
       </c>
       <c r="F58">
-        <v>15</v>
+        <v>15.12</v>
       </c>
       <c r="G58">
-        <v>11.72</v>
+        <v>15.12</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>6016</v>
+        <v>3200</v>
       </c>
       <c r="J58">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>-1.32</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -3327,122 +3378,122 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>873576</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D59">
-        <v>13.62</v>
+        <v>11.72</v>
       </c>
       <c r="E59">
-        <v>13.62</v>
+        <v>14.92</v>
       </c>
       <c r="F59">
-        <v>13.62</v>
+        <v>15</v>
       </c>
       <c r="G59">
-        <v>13.62</v>
+        <v>11.72</v>
       </c>
       <c r="H59">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>29000</v>
+        <v>6016</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>21.69</v>
       </c>
       <c r="K59">
-        <v>-8.710000000000001</v>
+        <v>-1.32</v>
       </c>
       <c r="L59">
-        <v>-1.3</v>
+        <v>-0.2</v>
       </c>
       <c r="M59">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>873576</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D60">
-        <v>11.22</v>
+        <v>13.62</v>
       </c>
       <c r="E60">
-        <v>11.22</v>
+        <v>13.62</v>
       </c>
       <c r="F60">
-        <v>11.22</v>
+        <v>13.62</v>
       </c>
       <c r="G60">
-        <v>11.22</v>
+        <v>13.62</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I60">
-        <v>1210</v>
+        <v>29000</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>-17.62</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="L60">
-        <v>-2.4</v>
+        <v>-1.3</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>873576</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D61">
-        <v>14.12</v>
+        <v>11.22</v>
       </c>
       <c r="E61">
-        <v>14.12</v>
+        <v>11.22</v>
       </c>
       <c r="F61">
-        <v>14.12</v>
+        <v>11.22</v>
       </c>
       <c r="G61">
-        <v>14.12</v>
+        <v>11.22</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>3000</v>
+        <v>1210</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>25.85</v>
+        <v>-17.62</v>
       </c>
       <c r="L61">
-        <v>2.9</v>
+        <v>-2.4</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -3450,40 +3501,40 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>873576</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D62">
-        <v>10.13</v>
+        <v>14.12</v>
       </c>
       <c r="E62">
-        <v>10.25</v>
+        <v>14.12</v>
       </c>
       <c r="F62">
-        <v>10.25</v>
+        <v>14.12</v>
       </c>
       <c r="G62">
-        <v>10.13</v>
+        <v>14.12</v>
       </c>
       <c r="H62">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>12212</v>
+        <v>3000</v>
       </c>
       <c r="J62">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>-27.41</v>
+        <v>25.85</v>
       </c>
       <c r="L62">
-        <v>-3.87</v>
+        <v>2.9</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -3491,40 +3542,40 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>873576</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D63">
-        <v>12.24</v>
+        <v>10.13</v>
       </c>
       <c r="E63">
-        <v>12.12</v>
+        <v>10.25</v>
       </c>
       <c r="F63">
-        <v>12.24</v>
+        <v>10.25</v>
       </c>
       <c r="G63">
-        <v>12.12</v>
+        <v>10.13</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I63">
-        <v>2612</v>
+        <v>12212</v>
       </c>
       <c r="J63">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="K63">
-        <v>18.24</v>
+        <v>-27.41</v>
       </c>
       <c r="L63">
-        <v>1.87</v>
+        <v>-3.87</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -3532,40 +3583,40 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <v>873576</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D64">
-        <v>10.32</v>
+        <v>12.24</v>
       </c>
       <c r="E64">
-        <v>10.32</v>
+        <v>12.12</v>
       </c>
       <c r="F64">
-        <v>10.32</v>
+        <v>12.24</v>
       </c>
       <c r="G64">
-        <v>10.32</v>
+        <v>12.12</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>1120</v>
+        <v>2612</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="K64">
-        <v>-14.85</v>
+        <v>18.24</v>
       </c>
       <c r="L64">
-        <v>-1.8</v>
+        <v>1.87</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -3573,40 +3624,40 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>873576</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D65">
-        <v>11.12</v>
+        <v>10.32</v>
       </c>
       <c r="E65">
-        <v>11.12</v>
+        <v>10.32</v>
       </c>
       <c r="F65">
-        <v>11.12</v>
+        <v>10.32</v>
       </c>
       <c r="G65">
-        <v>11.12</v>
+        <v>10.32</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>7.75</v>
+        <v>-14.85</v>
       </c>
       <c r="L65">
-        <v>0.8</v>
+        <v>-1.8</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -3614,13 +3665,13 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>873576</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D66">
         <v>11.12</v>
@@ -3644,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -3655,40 +3706,40 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>873576</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D67">
-        <v>11.6</v>
+        <v>11.12</v>
       </c>
       <c r="E67">
-        <v>11.6</v>
+        <v>11.12</v>
       </c>
       <c r="F67">
-        <v>11.6</v>
+        <v>11.12</v>
       </c>
       <c r="G67">
-        <v>11.6</v>
+        <v>11.12</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>2420</v>
+        <v>1200</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>4.32</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -3696,40 +3747,40 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>873576</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D68">
-        <v>11.49</v>
+        <v>11.6</v>
       </c>
       <c r="E68">
-        <v>11.49</v>
+        <v>11.6</v>
       </c>
       <c r="F68">
-        <v>11.49</v>
+        <v>11.6</v>
       </c>
       <c r="G68">
-        <v>11.49</v>
+        <v>11.6</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1199</v>
+        <v>2420</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>-0.95</v>
+        <v>4.32</v>
       </c>
       <c r="L68">
-        <v>-0.11</v>
+        <v>0.48</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -3737,40 +3788,40 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B69">
+        <v>873576</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D69">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="E69">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="F69">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="G69">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="H69">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>8400</v>
+        <v>1199</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0.09</v>
+        <v>-0.95</v>
       </c>
       <c r="L69">
-        <v>0.01</v>
+        <v>-0.11</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -3778,40 +3829,40 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B70">
+        <v>873576</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D70">
-        <v>14.35</v>
+        <v>11.5</v>
       </c>
       <c r="E70">
-        <v>14.35</v>
+        <v>11.5</v>
       </c>
       <c r="F70">
-        <v>14.35</v>
+        <v>11.5</v>
       </c>
       <c r="G70">
-        <v>14.35</v>
+        <v>11.5</v>
       </c>
       <c r="H70">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I70">
-        <v>14850</v>
+        <v>8400</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>24.78</v>
+        <v>0.09</v>
       </c>
       <c r="L70">
-        <v>2.85</v>
+        <v>0.01</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -3819,16 +3870,16 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B71">
+        <v>873576</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D71">
-        <v>10.49</v>
+        <v>14.35</v>
       </c>
       <c r="E71">
         <v>14.35</v>
@@ -3837,22 +3888,22 @@
         <v>14.35</v>
       </c>
       <c r="G71">
-        <v>10.49</v>
+        <v>14.35</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I71">
-        <v>1396</v>
+        <v>14850</v>
       </c>
       <c r="J71">
-        <v>26.9</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>24.78</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -3860,122 +3911,122 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>873576</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D72">
-        <v>14.08</v>
+        <v>10.49</v>
       </c>
       <c r="E72">
-        <v>14.4</v>
+        <v>14.35</v>
       </c>
       <c r="F72">
-        <v>14.4</v>
+        <v>14.35</v>
       </c>
       <c r="G72">
-        <v>14.08</v>
+        <v>10.49</v>
       </c>
       <c r="H72">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>23808</v>
+        <v>1396</v>
       </c>
       <c r="J72">
-        <v>2.23</v>
+        <v>26.9</v>
       </c>
       <c r="K72">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B73">
+        <v>873576</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D73">
-        <v>14.5</v>
+        <v>14.08</v>
       </c>
       <c r="E73">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F73">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="G73">
-        <v>14.5</v>
+        <v>14.08</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I73">
-        <v>6000</v>
+        <v>23808</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="K73">
-        <v>0.6899999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="L73">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>873576</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D74">
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
       <c r="E74">
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
       <c r="F74">
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
       <c r="G74">
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I74">
-        <v>1475</v>
+        <v>6000</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>-1.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L74">
-        <v>-0.25</v>
+        <v>0.1</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -3983,13 +4034,13 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B75">
+        <v>873576</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D75">
         <v>14.25</v>
@@ -4004,19 +4055,19 @@
         <v>14.25</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>442.5</v>
+        <v>1475</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>-1.72</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -4024,122 +4075,122 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B76">
+        <v>873576</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D76">
-        <v>15.5</v>
+        <v>14.25</v>
       </c>
       <c r="E76">
-        <v>15.5</v>
+        <v>14.25</v>
       </c>
       <c r="F76">
-        <v>15.5</v>
+        <v>14.25</v>
       </c>
       <c r="G76">
-        <v>15.5</v>
+        <v>14.25</v>
       </c>
       <c r="H76">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>80000</v>
+        <v>442.5</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>8.77</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B77">
+        <v>873576</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D77">
-        <v>30.5</v>
+        <v>15.5</v>
       </c>
       <c r="E77">
-        <v>30.5</v>
+        <v>15.5</v>
       </c>
       <c r="F77">
-        <v>30.5</v>
+        <v>15.5</v>
       </c>
       <c r="G77">
-        <v>30.5</v>
+        <v>15.5</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I77">
-        <v>3100</v>
+        <v>80000</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>96.77</v>
+        <v>8.77</v>
       </c>
       <c r="L77">
-        <v>15</v>
+        <v>1.25</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B78">
+        <v>873576</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D78">
-        <v>19.5</v>
+        <v>30.5</v>
       </c>
       <c r="E78">
-        <v>19.5</v>
+        <v>30.5</v>
       </c>
       <c r="F78">
-        <v>19.5</v>
+        <v>30.5</v>
       </c>
       <c r="G78">
-        <v>19.5</v>
+        <v>30.5</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>2000</v>
+        <v>3100</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>-36.07</v>
+        <v>96.77</v>
       </c>
       <c r="L78">
-        <v>-11</v>
+        <v>15</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -4147,40 +4198,40 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B79">
+        <v>873576</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D79">
-        <v>18.29</v>
+        <v>19.5</v>
       </c>
       <c r="E79">
-        <v>17.3</v>
+        <v>19.5</v>
       </c>
       <c r="F79">
-        <v>18.29</v>
+        <v>19.5</v>
       </c>
       <c r="G79">
-        <v>17.3</v>
+        <v>19.5</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>7318</v>
+        <v>2000</v>
       </c>
       <c r="J79">
-        <v>5.08</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>-11.28</v>
+        <v>-36.07</v>
       </c>
       <c r="L79">
-        <v>-2.2</v>
+        <v>-11</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -4188,40 +4239,40 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B80">
+        <v>873576</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D80">
-        <v>21.68</v>
+        <v>18.29</v>
       </c>
       <c r="E80">
-        <v>21.68</v>
+        <v>17.3</v>
       </c>
       <c r="F80">
-        <v>21.68</v>
+        <v>18.29</v>
       </c>
       <c r="G80">
-        <v>21.68</v>
+        <v>17.3</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I80">
-        <v>2218</v>
+        <v>7318</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>5.08</v>
       </c>
       <c r="K80">
-        <v>25.32</v>
+        <v>-11.28</v>
       </c>
       <c r="L80">
-        <v>4.38</v>
+        <v>-2.2</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -4229,245 +4280,245 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B81">
+        <v>873576</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D81">
-        <v>17.2</v>
+        <v>21.68</v>
       </c>
       <c r="E81">
-        <v>18.3</v>
+        <v>21.68</v>
       </c>
       <c r="F81">
-        <v>18.3</v>
+        <v>21.68</v>
       </c>
       <c r="G81">
-        <v>16.52</v>
+        <v>21.68</v>
       </c>
       <c r="H81">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>32794</v>
+        <v>2218</v>
       </c>
       <c r="J81">
-        <v>8.210000000000001</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>-15.59</v>
+        <v>25.32</v>
       </c>
       <c r="L81">
-        <v>-3.38</v>
+        <v>4.38</v>
       </c>
       <c r="M81">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B82">
+        <v>873576</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D82">
-        <v>19.5</v>
+        <v>17.2</v>
       </c>
       <c r="E82">
-        <v>19.5</v>
+        <v>18.3</v>
       </c>
       <c r="F82">
-        <v>19.5</v>
+        <v>18.3</v>
       </c>
       <c r="G82">
-        <v>19.5</v>
+        <v>16.52</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I82">
-        <v>2000</v>
+        <v>32794</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="K82">
-        <v>6.56</v>
+        <v>-15.59</v>
       </c>
       <c r="L82">
-        <v>1.2</v>
+        <v>-3.38</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B83">
+        <v>873576</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D83">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="E83">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="F83">
-        <v>17.1</v>
+        <v>19.5</v>
       </c>
       <c r="G83">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="H83">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>51800</v>
+        <v>2000</v>
       </c>
       <c r="J83">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>-15.38</v>
+        <v>6.56</v>
       </c>
       <c r="L83">
-        <v>-3</v>
+        <v>1.2</v>
       </c>
       <c r="M83">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B84">
+        <v>873576</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D84">
-        <v>16.99</v>
+        <v>16.5</v>
       </c>
       <c r="E84">
-        <v>16.99</v>
+        <v>16.5</v>
       </c>
       <c r="F84">
-        <v>16.99</v>
+        <v>17.1</v>
       </c>
       <c r="G84">
-        <v>16.99</v>
+        <v>16.5</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I84">
-        <v>1749</v>
+        <v>51800</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="K84">
-        <v>2.97</v>
+        <v>-15.38</v>
       </c>
       <c r="L84">
-        <v>0.49</v>
+        <v>-3</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B85">
+        <v>873576</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D85">
-        <v>16.5</v>
+        <v>16.99</v>
       </c>
       <c r="E85">
-        <v>16.5</v>
+        <v>16.99</v>
       </c>
       <c r="F85">
-        <v>16.5</v>
+        <v>16.99</v>
       </c>
       <c r="G85">
-        <v>16.5</v>
+        <v>16.99</v>
       </c>
       <c r="H85">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>28900</v>
+        <v>1749</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>-2.88</v>
+        <v>2.97</v>
       </c>
       <c r="L85">
-        <v>-0.49</v>
+        <v>0.49</v>
       </c>
       <c r="M85">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B86">
+        <v>873576</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D86">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="E86">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="F86">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="G86">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="H86">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I86">
-        <v>60800</v>
+        <v>28900</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <v>-6.06</v>
+        <v>-2.88</v>
       </c>
       <c r="L86">
-        <v>-1</v>
+        <v>-0.49</v>
       </c>
       <c r="M86">
         <v>0.01</v>
@@ -4475,40 +4526,40 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B87">
+        <v>873576</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D87">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="E87">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="F87">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="G87">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H87">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I87">
-        <v>24800</v>
+        <v>60800</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>-3.23</v>
+        <v>-6.06</v>
       </c>
       <c r="L87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="M87">
         <v>0.01</v>
@@ -4516,81 +4567,81 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B88">
+        <v>873576</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D88">
-        <v>15.45</v>
+        <v>15</v>
       </c>
       <c r="E88">
-        <v>15.45</v>
+        <v>15</v>
       </c>
       <c r="F88">
-        <v>15.45</v>
+        <v>15</v>
       </c>
       <c r="G88">
-        <v>15.45</v>
+        <v>15</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I88">
-        <v>1595</v>
+        <v>24800</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>-3.23</v>
       </c>
       <c r="L88">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B89">
+        <v>873576</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D89">
-        <v>15</v>
+        <v>15.45</v>
       </c>
       <c r="E89">
-        <v>15</v>
+        <v>15.45</v>
       </c>
       <c r="F89">
-        <v>15</v>
+        <v>15.45</v>
       </c>
       <c r="G89">
-        <v>15</v>
+        <v>15.45</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>1581</v>
+        <v>1595</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>-2.91</v>
+        <v>3</v>
       </c>
       <c r="L89">
-        <v>-0.45</v>
+        <v>0.45</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -4598,54 +4649,54 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B90">
+        <v>873576</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D90">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="E90">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="F90">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="G90">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="H90">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>89985</v>
+        <v>1581</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90">
-        <v>-3.33</v>
+        <v>-2.91</v>
       </c>
       <c r="L90">
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="M90">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B91">
+        <v>873576</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D91">
         <v>14.5</v>
@@ -4660,19 +4711,19 @@
         <v>14.5</v>
       </c>
       <c r="H91">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I91">
-        <v>76980</v>
+        <v>89985</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>-3.33</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M91">
         <v>0.02</v>
@@ -4680,16 +4731,16 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B92">
+        <v>873576</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D92">
-        <v>14.49</v>
+        <v>14.5</v>
       </c>
       <c r="E92">
         <v>14.5</v>
@@ -4698,16 +4749,16 @@
         <v>14.5</v>
       </c>
       <c r="G92">
-        <v>14.49</v>
+        <v>14.5</v>
       </c>
       <c r="H92">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="I92">
-        <v>124255</v>
+        <v>76980</v>
       </c>
       <c r="J92">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -4716,103 +4767,103 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B93">
+        <v>873576</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D93">
-        <v>14</v>
+        <v>14.49</v>
       </c>
       <c r="E93">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="F93">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="G93">
-        <v>14</v>
+        <v>14.49</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I93">
-        <v>1450</v>
+        <v>124255</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K93">
-        <v>-3.45</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94">
+        <v>873576</v>
+      </c>
+      <c r="C94" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94">
         <v>14</v>
       </c>
-      <c r="C94" t="s">
-        <v>107</v>
-      </c>
-      <c r="D94">
-        <v>13.5</v>
-      </c>
       <c r="E94">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="F94">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="G94">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="H94">
-        <v>214</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>299586</v>
+        <v>1450</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>-3.57</v>
+        <v>-3.45</v>
       </c>
       <c r="L94">
         <v>-0.5</v>
       </c>
       <c r="M94">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B95">
+        <v>873576</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D95">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="E95">
         <v>13.5</v>
@@ -4821,39 +4872,39 @@
         <v>13.5</v>
       </c>
       <c r="G95">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="H95">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="I95">
-        <v>226400</v>
+        <v>299586</v>
       </c>
       <c r="J95">
-        <v>7.41</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>-3.57</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M95">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B96">
+        <v>873576</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D96">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E96">
         <v>13.5</v>
@@ -4862,16 +4913,16 @@
         <v>13.5</v>
       </c>
       <c r="G96">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="H96">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="I96">
-        <v>163000</v>
+        <v>226400</v>
       </c>
       <c r="J96">
-        <v>3.7</v>
+        <v>7.41</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -4880,59 +4931,59 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>873576</v>
       </c>
       <c r="C97" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D97">
         <v>13</v>
       </c>
       <c r="E97">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="F97">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="G97">
         <v>13</v>
       </c>
       <c r="H97">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="I97">
-        <v>124200</v>
+        <v>163000</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="K97">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B98">
+        <v>873576</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D98">
         <v>13</v>
@@ -4947,3219 +4998,3260 @@
         <v>13</v>
       </c>
       <c r="H98">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I98">
-        <v>33750</v>
+        <v>124200</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M98">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99">
+        <v>873576</v>
+      </c>
+      <c r="C99" t="s">
+        <v>119</v>
+      </c>
+      <c r="D99">
         <v>13</v>
       </c>
-      <c r="B99" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" t="s">
-        <v>112</v>
-      </c>
-      <c r="D99">
-        <v>13.48</v>
-      </c>
       <c r="E99">
-        <v>13.48</v>
+        <v>13</v>
       </c>
       <c r="F99">
-        <v>13.48</v>
+        <v>13</v>
       </c>
       <c r="G99">
-        <v>13.48</v>
+        <v>13</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I99">
-        <v>2796</v>
+        <v>33750</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B100">
+        <v>873576</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D100">
-        <v>14.97</v>
+        <v>13.48</v>
       </c>
       <c r="E100">
-        <v>17.53</v>
+        <v>13.48</v>
       </c>
       <c r="F100">
-        <v>18.85</v>
+        <v>13.48</v>
       </c>
       <c r="G100">
-        <v>14.23</v>
+        <v>13.48</v>
       </c>
       <c r="H100">
-        <v>120289</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>190526391.46</v>
+        <v>2796</v>
       </c>
       <c r="J100">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>98.08</v>
+        <v>3.69</v>
       </c>
       <c r="L100">
-        <v>8.68</v>
+        <v>0.48</v>
       </c>
       <c r="M100">
-        <v>40.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B101">
+        <v>873576</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D101">
-        <v>15.75</v>
+        <v>14.97</v>
       </c>
       <c r="E101">
-        <v>15.24</v>
+        <v>17.53</v>
       </c>
       <c r="F101">
-        <v>16.25</v>
+        <v>18.85</v>
       </c>
       <c r="G101">
-        <v>14.77</v>
+        <v>14.23</v>
       </c>
       <c r="H101">
-        <v>64183</v>
+        <v>120289</v>
       </c>
       <c r="I101">
-        <v>102254131.55</v>
+        <v>190526391.46</v>
       </c>
       <c r="J101">
-        <v>8.44</v>
+        <v>52.2</v>
       </c>
       <c r="K101">
-        <v>-13.06</v>
+        <v>98.08</v>
       </c>
       <c r="L101">
-        <v>-2.29</v>
+        <v>8.68</v>
       </c>
       <c r="M101">
-        <v>21.53</v>
+        <v>40.34</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B102">
+        <v>873576</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D102">
-        <v>15.3</v>
+        <v>15.75</v>
       </c>
       <c r="E102">
-        <v>18.4</v>
+        <v>15.24</v>
       </c>
       <c r="F102">
-        <v>19.18</v>
+        <v>16.25</v>
       </c>
       <c r="G102">
-        <v>15.3</v>
+        <v>14.77</v>
       </c>
       <c r="H102">
-        <v>70314</v>
+        <v>64183</v>
       </c>
       <c r="I102">
-        <v>124887466.93</v>
+        <v>102254131.55</v>
       </c>
       <c r="J102">
-        <v>25.46</v>
+        <v>8.44</v>
       </c>
       <c r="K102">
-        <v>20.73</v>
+        <v>-13.06</v>
       </c>
       <c r="L102">
-        <v>3.16</v>
+        <v>-2.29</v>
       </c>
       <c r="M102">
-        <v>23.58</v>
+        <v>21.53</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B103">
+        <v>873576</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D103">
-        <v>18.78</v>
+        <v>15.3</v>
       </c>
       <c r="E103">
-        <v>23.5</v>
+        <v>18.4</v>
       </c>
       <c r="F103">
-        <v>23.7</v>
+        <v>19.18</v>
       </c>
       <c r="G103">
-        <v>17.41</v>
+        <v>15.3</v>
       </c>
       <c r="H103">
-        <v>73651</v>
+        <v>70314</v>
       </c>
       <c r="I103">
-        <v>156782204.89</v>
+        <v>124887466.93</v>
       </c>
       <c r="J103">
-        <v>34.18</v>
+        <v>25.46</v>
       </c>
       <c r="K103">
-        <v>27.72</v>
+        <v>20.73</v>
       </c>
       <c r="L103">
-        <v>5.1</v>
+        <v>3.16</v>
       </c>
       <c r="M103">
-        <v>24.7</v>
+        <v>23.58</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B104">
+        <v>873576</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D104">
-        <v>22</v>
+        <v>18.78</v>
       </c>
       <c r="E104">
-        <v>22.99</v>
+        <v>23.5</v>
       </c>
       <c r="F104">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="G104">
-        <v>21</v>
+        <v>17.41</v>
       </c>
       <c r="H104">
-        <v>48689</v>
+        <v>73651</v>
       </c>
       <c r="I104">
-        <v>109826327.1</v>
+        <v>156782204.89</v>
       </c>
       <c r="J104">
-        <v>9.359999999999999</v>
+        <v>34.18</v>
       </c>
       <c r="K104">
-        <v>-2.17</v>
+        <v>27.72</v>
       </c>
       <c r="L104">
-        <v>-0.51</v>
+        <v>5.1</v>
       </c>
       <c r="M104">
-        <v>16.33</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B105">
+        <v>873576</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D105">
-        <v>23.5</v>
+        <v>22</v>
       </c>
       <c r="E105">
-        <v>23.5</v>
+        <v>22.99</v>
       </c>
       <c r="F105">
-        <v>24.98</v>
+        <v>23.2</v>
       </c>
       <c r="G105">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="H105">
-        <v>50163</v>
+        <v>48689</v>
       </c>
       <c r="I105">
-        <v>119255842.74</v>
+        <v>109826327.1</v>
       </c>
       <c r="J105">
-        <v>15.14</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="K105">
-        <v>2.22</v>
+        <v>-2.17</v>
       </c>
       <c r="L105">
-        <v>0.51</v>
+        <v>-0.51</v>
       </c>
       <c r="M105">
-        <v>16.82</v>
+        <v>16.33</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B106">
+        <v>873576</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D106">
-        <v>22.01</v>
+        <v>23.5</v>
       </c>
       <c r="E106">
-        <v>19.83</v>
+        <v>23.5</v>
       </c>
       <c r="F106">
-        <v>22.9</v>
+        <v>24.98</v>
       </c>
       <c r="G106">
-        <v>19.79</v>
+        <v>21.5</v>
       </c>
       <c r="H106">
-        <v>43402</v>
+        <v>50163</v>
       </c>
       <c r="I106">
-        <v>94219418.88</v>
+        <v>119255842.74</v>
       </c>
       <c r="J106">
-        <v>13.23</v>
+        <v>15.14</v>
       </c>
       <c r="K106">
-        <v>-15.62</v>
+        <v>2.22</v>
       </c>
       <c r="L106">
-        <v>-3.67</v>
+        <v>0.51</v>
       </c>
       <c r="M106">
-        <v>14.56</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B107">
+        <v>873576</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D107">
-        <v>19.39</v>
+        <v>22.01</v>
       </c>
       <c r="E107">
-        <v>19.5</v>
+        <v>19.83</v>
       </c>
       <c r="F107">
-        <v>21.8</v>
+        <v>22.9</v>
       </c>
       <c r="G107">
-        <v>19</v>
+        <v>19.79</v>
       </c>
       <c r="H107">
-        <v>41183</v>
+        <v>43402</v>
       </c>
       <c r="I107">
-        <v>86547114.37</v>
+        <v>94219418.88</v>
       </c>
       <c r="J107">
-        <v>14.12</v>
+        <v>13.23</v>
       </c>
       <c r="K107">
-        <v>-1.66</v>
+        <v>-15.62</v>
       </c>
       <c r="L107">
-        <v>-0.33</v>
+        <v>-3.67</v>
       </c>
       <c r="M107">
-        <v>13.81</v>
+        <v>14.56</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B108">
+        <v>873576</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D108">
-        <v>19.06</v>
+        <v>19.39</v>
       </c>
       <c r="E108">
-        <v>17.75</v>
+        <v>19.5</v>
       </c>
       <c r="F108">
-        <v>19.06</v>
+        <v>21.8</v>
       </c>
       <c r="G108">
-        <v>17.62</v>
+        <v>19</v>
       </c>
       <c r="H108">
-        <v>35688</v>
+        <v>41183</v>
       </c>
       <c r="I108">
-        <v>67219541.45999999</v>
+        <v>86547114.37</v>
       </c>
       <c r="J108">
-        <v>7.38</v>
+        <v>14.12</v>
       </c>
       <c r="K108">
-        <v>-8.970000000000001</v>
+        <v>-1.66</v>
       </c>
       <c r="L108">
-        <v>-1.75</v>
+        <v>-0.33</v>
       </c>
       <c r="M108">
-        <v>11.97</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B109">
+        <v>873576</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D109">
-        <v>18.5</v>
+        <v>19.06</v>
       </c>
       <c r="E109">
-        <v>18.38</v>
+        <v>17.75</v>
       </c>
       <c r="F109">
-        <v>18.84</v>
+        <v>19.06</v>
       </c>
       <c r="G109">
-        <v>16.39</v>
+        <v>17.62</v>
       </c>
       <c r="H109">
-        <v>38880</v>
+        <v>35688</v>
       </c>
       <c r="I109">
-        <v>70740226.7</v>
+        <v>67219541.45999999</v>
       </c>
       <c r="J109">
-        <v>13.8</v>
+        <v>7.38</v>
       </c>
       <c r="K109">
-        <v>3.55</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="L109">
-        <v>0.63</v>
+        <v>-1.75</v>
       </c>
       <c r="M109">
-        <v>13.04</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B110">
+        <v>873576</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D110">
-        <v>17.91</v>
+        <v>18.5</v>
       </c>
       <c r="E110">
-        <v>17.31</v>
+        <v>18.38</v>
       </c>
       <c r="F110">
-        <v>18.2</v>
+        <v>18.84</v>
       </c>
       <c r="G110">
-        <v>17.2</v>
+        <v>16.39</v>
       </c>
       <c r="H110">
-        <v>23477</v>
+        <v>38880</v>
       </c>
       <c r="I110">
-        <v>42506192.27</v>
+        <v>70740226.7</v>
       </c>
       <c r="J110">
-        <v>5.44</v>
+        <v>13.8</v>
       </c>
       <c r="K110">
-        <v>-5.82</v>
+        <v>3.55</v>
       </c>
       <c r="L110">
-        <v>-1.07</v>
+        <v>0.63</v>
       </c>
       <c r="M110">
-        <v>7.87</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B111">
+        <v>873576</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D111">
-        <v>17.47</v>
+        <v>17.91</v>
       </c>
       <c r="E111">
-        <v>17.07</v>
+        <v>17.31</v>
       </c>
       <c r="F111">
-        <v>17.47</v>
+        <v>18.2</v>
       </c>
       <c r="G111">
-        <v>16.63</v>
+        <v>17.2</v>
       </c>
       <c r="H111">
-        <v>19214</v>
+        <v>23477</v>
       </c>
       <c r="I111">
-        <v>33579356.68</v>
+        <v>42506192.27</v>
       </c>
       <c r="J111">
-        <v>4.85</v>
+        <v>5.44</v>
       </c>
       <c r="K111">
-        <v>-1.39</v>
+        <v>-5.82</v>
       </c>
       <c r="L111">
-        <v>-0.24</v>
+        <v>-1.07</v>
       </c>
       <c r="M111">
-        <v>6.44</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B112">
+        <v>873576</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D112">
-        <v>16.8</v>
+        <v>17.47</v>
       </c>
       <c r="E112">
-        <v>17</v>
+        <v>17.07</v>
       </c>
       <c r="F112">
-        <v>17.79</v>
+        <v>17.47</v>
       </c>
       <c r="G112">
-        <v>16.1</v>
+        <v>16.63</v>
       </c>
       <c r="H112">
-        <v>26974</v>
+        <v>19214</v>
       </c>
       <c r="I112">
-        <v>46705133.88</v>
+        <v>33579356.68</v>
       </c>
       <c r="J112">
-        <v>9.9</v>
+        <v>4.85</v>
       </c>
       <c r="K112">
-        <v>-0.41</v>
+        <v>-1.39</v>
       </c>
       <c r="L112">
-        <v>-0.07000000000000001</v>
+        <v>-0.24</v>
       </c>
       <c r="M112">
-        <v>9.050000000000001</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B113">
+        <v>873576</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D113">
-        <v>17.3</v>
+        <v>16.8</v>
       </c>
       <c r="E113">
-        <v>17.08</v>
+        <v>17</v>
       </c>
       <c r="F113">
-        <v>17.68</v>
+        <v>17.79</v>
       </c>
       <c r="G113">
-        <v>16.64</v>
+        <v>16.1</v>
       </c>
       <c r="H113">
-        <v>20458</v>
+        <v>26974</v>
       </c>
       <c r="I113">
-        <v>36086084.74</v>
+        <v>46705133.88</v>
       </c>
       <c r="J113">
-        <v>6.12</v>
+        <v>9.9</v>
       </c>
       <c r="K113">
-        <v>0.47</v>
+        <v>-0.41</v>
       </c>
       <c r="L113">
-        <v>0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M113">
-        <v>6.86</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B114">
+        <v>873576</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D114">
+        <v>17.3</v>
+      </c>
+      <c r="E114">
+        <v>17.08</v>
+      </c>
+      <c r="F114">
         <v>17.68</v>
       </c>
-      <c r="E114">
-        <v>20.5</v>
-      </c>
-      <c r="F114">
-        <v>20.5</v>
-      </c>
       <c r="G114">
-        <v>17.67</v>
+        <v>16.64</v>
       </c>
       <c r="H114">
-        <v>50301</v>
+        <v>20458</v>
       </c>
       <c r="I114">
-        <v>97244231.42</v>
+        <v>36086084.74</v>
       </c>
       <c r="J114">
-        <v>16.57</v>
+        <v>6.12</v>
       </c>
       <c r="K114">
-        <v>20.02</v>
+        <v>0.47</v>
       </c>
       <c r="L114">
-        <v>3.42</v>
+        <v>0.08</v>
       </c>
       <c r="M114">
-        <v>16.87</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B115">
+        <v>873576</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D115">
-        <v>19.53</v>
+        <v>17.68</v>
       </c>
       <c r="E115">
-        <v>19.26</v>
+        <v>20.5</v>
       </c>
       <c r="F115">
-        <v>22.17</v>
+        <v>20.5</v>
       </c>
       <c r="G115">
-        <v>19.05</v>
+        <v>17.67</v>
       </c>
       <c r="H115">
-        <v>38589</v>
+        <v>50301</v>
       </c>
       <c r="I115">
-        <v>80753971.98</v>
+        <v>97244231.42</v>
       </c>
       <c r="J115">
-        <v>15.22</v>
+        <v>16.57</v>
       </c>
       <c r="K115">
-        <v>-6.05</v>
+        <v>20.02</v>
       </c>
       <c r="L115">
-        <v>-1.24</v>
+        <v>3.42</v>
       </c>
       <c r="M115">
-        <v>12.94</v>
+        <v>16.87</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B116">
+        <v>873576</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D116">
-        <v>18.47</v>
+        <v>19.53</v>
       </c>
       <c r="E116">
-        <v>17.9</v>
+        <v>19.26</v>
       </c>
       <c r="F116">
-        <v>18.8</v>
+        <v>22.17</v>
       </c>
       <c r="G116">
-        <v>17.5</v>
+        <v>19.05</v>
       </c>
       <c r="H116">
-        <v>35472</v>
+        <v>38589</v>
       </c>
       <c r="I116">
-        <v>65487307.84</v>
+        <v>80753971.98</v>
       </c>
       <c r="J116">
-        <v>6.75</v>
+        <v>15.22</v>
       </c>
       <c r="K116">
-        <v>-7.06</v>
+        <v>-6.05</v>
       </c>
       <c r="L116">
-        <v>-1.36</v>
+        <v>-1.24</v>
       </c>
       <c r="M116">
-        <v>11.9</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B117">
+        <v>873576</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D117">
-        <v>17.79</v>
+        <v>18.47</v>
       </c>
       <c r="E117">
-        <v>18.15</v>
+        <v>17.9</v>
       </c>
       <c r="F117">
-        <v>18.28</v>
+        <v>18.8</v>
       </c>
       <c r="G117">
-        <v>17.41</v>
+        <v>17.5</v>
       </c>
       <c r="H117">
-        <v>20681</v>
+        <v>35472</v>
       </c>
       <c r="I117">
-        <v>37878916.44</v>
+        <v>65487307.84</v>
       </c>
       <c r="J117">
-        <v>4.86</v>
+        <v>6.75</v>
       </c>
       <c r="K117">
-        <v>1.4</v>
+        <v>-7.06</v>
       </c>
       <c r="L117">
-        <v>0.25</v>
+        <v>-1.36</v>
       </c>
       <c r="M117">
-        <v>6.94</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B118">
+        <v>873576</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D118">
-        <v>18.08</v>
+        <v>17.79</v>
       </c>
       <c r="E118">
-        <v>19.49</v>
+        <v>18.15</v>
       </c>
       <c r="F118">
-        <v>19.5</v>
+        <v>18.28</v>
       </c>
       <c r="G118">
-        <v>17.72</v>
+        <v>17.41</v>
       </c>
       <c r="H118">
-        <v>33365</v>
+        <v>20681</v>
       </c>
       <c r="I118">
-        <v>64727256.83</v>
+        <v>37878916.44</v>
       </c>
       <c r="J118">
-        <v>9.81</v>
+        <v>4.86</v>
       </c>
       <c r="K118">
-        <v>7.38</v>
+        <v>1.4</v>
       </c>
       <c r="L118">
-        <v>1.34</v>
+        <v>0.25</v>
       </c>
       <c r="M118">
-        <v>11.19</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B119">
+        <v>873576</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D119">
-        <v>19.01</v>
+        <v>18.08</v>
       </c>
       <c r="E119">
-        <v>17.9</v>
+        <v>19.49</v>
       </c>
       <c r="F119">
-        <v>19.42</v>
+        <v>19.5</v>
       </c>
       <c r="G119">
-        <v>17.9</v>
+        <v>17.72</v>
       </c>
       <c r="H119">
-        <v>24358</v>
+        <v>33365</v>
       </c>
       <c r="I119">
-        <v>46378165.34</v>
+        <v>64727256.83</v>
       </c>
       <c r="J119">
-        <v>7.8</v>
+        <v>9.81</v>
       </c>
       <c r="K119">
-        <v>-8.16</v>
+        <v>7.38</v>
       </c>
       <c r="L119">
-        <v>-1.59</v>
+        <v>1.34</v>
       </c>
       <c r="M119">
-        <v>8.17</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>13</v>
-      </c>
-      <c r="B120" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B120">
+        <v>873576</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D120">
-        <v>17.79</v>
+        <v>19.01</v>
       </c>
       <c r="E120">
-        <v>17.81</v>
+        <v>17.9</v>
       </c>
       <c r="F120">
-        <v>18.47</v>
+        <v>19.42</v>
       </c>
       <c r="G120">
-        <v>17.56</v>
+        <v>17.9</v>
       </c>
       <c r="H120">
-        <v>14622</v>
+        <v>24358</v>
       </c>
       <c r="I120">
-        <v>26969310.01</v>
+        <v>46378165.34</v>
       </c>
       <c r="J120">
-        <v>5.08</v>
+        <v>7.8</v>
       </c>
       <c r="K120">
-        <v>-0.5</v>
+        <v>-8.16</v>
       </c>
       <c r="L120">
-        <v>-0.09</v>
+        <v>-1.59</v>
       </c>
       <c r="M120">
-        <v>4.9</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B121">
+        <v>873576</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D121">
-        <v>17.51</v>
+        <v>17.79</v>
       </c>
       <c r="E121">
-        <v>17.28</v>
+        <v>17.81</v>
       </c>
       <c r="F121">
-        <v>17.88</v>
+        <v>18.47</v>
       </c>
       <c r="G121">
-        <v>17.06</v>
+        <v>17.56</v>
       </c>
       <c r="H121">
-        <v>16260</v>
+        <v>14622</v>
       </c>
       <c r="I121">
-        <v>28914953.2</v>
+        <v>26969310.01</v>
       </c>
       <c r="J121">
-        <v>4.6</v>
+        <v>5.08</v>
       </c>
       <c r="K121">
-        <v>-2.98</v>
+        <v>-0.5</v>
       </c>
       <c r="L121">
-        <v>-0.53</v>
+        <v>-0.09</v>
       </c>
       <c r="M121">
-        <v>5.45</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B122">
+        <v>873576</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D122">
-        <v>17.32</v>
+        <v>17.51</v>
       </c>
       <c r="E122">
-        <v>16.77</v>
+        <v>17.28</v>
       </c>
       <c r="F122">
-        <v>17.6</v>
+        <v>17.88</v>
       </c>
       <c r="G122">
-        <v>16.7</v>
+        <v>17.06</v>
       </c>
       <c r="H122">
-        <v>14722</v>
+        <v>16260</v>
       </c>
       <c r="I122">
-        <v>25720293.69</v>
+        <v>28914953.2</v>
       </c>
       <c r="J122">
-        <v>5.21</v>
+        <v>4.6</v>
       </c>
       <c r="K122">
-        <v>-2.95</v>
+        <v>-2.98</v>
       </c>
       <c r="L122">
-        <v>-0.51</v>
+        <v>-0.53</v>
       </c>
       <c r="M122">
-        <v>4.94</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>13</v>
-      </c>
-      <c r="B123" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B123">
+        <v>873576</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D123">
-        <v>16.64</v>
+        <v>17.32</v>
       </c>
       <c r="E123">
-        <v>16.29</v>
+        <v>16.77</v>
       </c>
       <c r="F123">
-        <v>16.64</v>
+        <v>17.6</v>
       </c>
       <c r="G123">
-        <v>16.26</v>
+        <v>16.7</v>
       </c>
       <c r="H123">
-        <v>9802</v>
+        <v>14722</v>
       </c>
       <c r="I123">
-        <v>16544716.08</v>
+        <v>25720293.69</v>
       </c>
       <c r="J123">
-        <v>2.27</v>
+        <v>5.21</v>
       </c>
       <c r="K123">
-        <v>-2.86</v>
+        <v>-2.95</v>
       </c>
       <c r="L123">
-        <v>-0.48</v>
+        <v>-0.51</v>
       </c>
       <c r="M123">
-        <v>3.29</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B124">
+        <v>873576</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D124">
+        <v>16.64</v>
+      </c>
+      <c r="E124">
         <v>16.29</v>
       </c>
-      <c r="E124">
-        <v>15.56</v>
-      </c>
       <c r="F124">
-        <v>16.43</v>
+        <v>16.64</v>
       </c>
       <c r="G124">
-        <v>15.5</v>
+        <v>16.26</v>
       </c>
       <c r="H124">
-        <v>10147</v>
+        <v>9802</v>
       </c>
       <c r="I124">
-        <v>16711765.85</v>
+        <v>16544716.08</v>
       </c>
       <c r="J124">
-        <v>5.71</v>
+        <v>2.27</v>
       </c>
       <c r="K124">
-        <v>-4.48</v>
+        <v>-2.86</v>
       </c>
       <c r="L124">
-        <v>-0.73</v>
+        <v>-0.48</v>
       </c>
       <c r="M124">
-        <v>3.4</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B125">
+        <v>873576</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D125">
-        <v>15.52</v>
+        <v>16.29</v>
       </c>
       <c r="E125">
-        <v>14.81</v>
+        <v>15.56</v>
       </c>
       <c r="F125">
-        <v>15.52</v>
+        <v>16.43</v>
       </c>
       <c r="G125">
-        <v>14.81</v>
+        <v>15.5</v>
       </c>
       <c r="H125">
-        <v>12448</v>
+        <v>10147</v>
       </c>
       <c r="I125">
-        <v>19439590.27</v>
+        <v>16711765.85</v>
       </c>
       <c r="J125">
-        <v>4.56</v>
+        <v>5.71</v>
       </c>
       <c r="K125">
-        <v>-4.82</v>
+        <v>-4.48</v>
       </c>
       <c r="L125">
-        <v>-0.75</v>
+        <v>-0.73</v>
       </c>
       <c r="M125">
-        <v>4.17</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B126">
+        <v>873576</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D126">
-        <v>14.83</v>
+        <v>15.52</v>
       </c>
       <c r="E126">
-        <v>14.73</v>
+        <v>14.81</v>
       </c>
       <c r="F126">
-        <v>14.83</v>
+        <v>15.52</v>
       </c>
       <c r="G126">
-        <v>14.19</v>
+        <v>14.81</v>
       </c>
       <c r="H126">
-        <v>9327</v>
+        <v>12448</v>
       </c>
       <c r="I126">
-        <v>14053266.79</v>
+        <v>19439590.27</v>
       </c>
       <c r="J126">
-        <v>4.32</v>
+        <v>4.56</v>
       </c>
       <c r="K126">
-        <v>-0.54</v>
+        <v>-4.82</v>
       </c>
       <c r="L126">
-        <v>-0.08</v>
+        <v>-0.75</v>
       </c>
       <c r="M126">
-        <v>3.13</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B127">
+        <v>873576</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D127">
-        <v>14.79</v>
+        <v>14.83</v>
       </c>
       <c r="E127">
-        <v>14.9</v>
+        <v>14.73</v>
       </c>
       <c r="F127">
-        <v>15.46</v>
+        <v>14.83</v>
       </c>
       <c r="G127">
-        <v>14.5</v>
+        <v>14.19</v>
       </c>
       <c r="H127">
-        <v>9559</v>
+        <v>9327</v>
       </c>
       <c r="I127">
-        <v>14868781.72</v>
+        <v>14053266.79</v>
       </c>
       <c r="J127">
-        <v>6.52</v>
+        <v>4.32</v>
       </c>
       <c r="K127">
-        <v>1.15</v>
+        <v>-0.54</v>
       </c>
       <c r="L127">
-        <v>0.17</v>
+        <v>-0.08</v>
       </c>
       <c r="M127">
-        <v>3.21</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B128">
+        <v>873576</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D128">
-        <v>14.65</v>
+        <v>14.79</v>
       </c>
       <c r="E128">
-        <v>14.39</v>
+        <v>14.9</v>
       </c>
       <c r="F128">
-        <v>14.89</v>
+        <v>15.46</v>
       </c>
       <c r="G128">
-        <v>14.24</v>
+        <v>14.5</v>
       </c>
       <c r="H128">
-        <v>6877</v>
+        <v>9559</v>
       </c>
       <c r="I128">
-        <v>10239474.37</v>
+        <v>14868781.72</v>
       </c>
       <c r="J128">
-        <v>4.36</v>
+        <v>6.52</v>
       </c>
       <c r="K128">
-        <v>-3.42</v>
+        <v>1.15</v>
       </c>
       <c r="L128">
-        <v>-0.51</v>
+        <v>0.17</v>
       </c>
       <c r="M128">
-        <v>2.31</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B129">
+        <v>873576</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D129">
-        <v>14.23</v>
+        <v>14.65</v>
       </c>
       <c r="E129">
-        <v>13.58</v>
+        <v>14.39</v>
       </c>
       <c r="F129">
-        <v>14.45</v>
+        <v>14.89</v>
       </c>
       <c r="G129">
-        <v>13.13</v>
+        <v>14.24</v>
       </c>
       <c r="H129">
-        <v>10720</v>
+        <v>6877</v>
       </c>
       <c r="I129">
-        <v>15325961.71</v>
+        <v>10239474.37</v>
       </c>
       <c r="J129">
-        <v>9.17</v>
+        <v>4.36</v>
       </c>
       <c r="K129">
-        <v>-5.63</v>
+        <v>-3.42</v>
       </c>
       <c r="L129">
-        <v>-0.8100000000000001</v>
+        <v>-0.51</v>
       </c>
       <c r="M129">
-        <v>3.6</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>13</v>
-      </c>
-      <c r="B130" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B130">
+        <v>873576</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D130">
-        <v>13.43</v>
+        <v>14.23</v>
       </c>
       <c r="E130">
-        <v>12.75</v>
+        <v>13.58</v>
       </c>
       <c r="F130">
-        <v>13.59</v>
+        <v>14.45</v>
       </c>
       <c r="G130">
-        <v>12.71</v>
+        <v>13.13</v>
       </c>
       <c r="H130">
-        <v>7650</v>
+        <v>10720</v>
       </c>
       <c r="I130">
-        <v>10428184.28</v>
+        <v>15325961.71</v>
       </c>
       <c r="J130">
-        <v>6.48</v>
+        <v>9.17</v>
       </c>
       <c r="K130">
-        <v>-6.11</v>
+        <v>-5.63</v>
       </c>
       <c r="L130">
-        <v>-0.83</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="M130">
-        <v>2.57</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>13</v>
-      </c>
-      <c r="B131" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B131">
+        <v>873576</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D131">
-        <v>12.81</v>
+        <v>13.43</v>
       </c>
       <c r="E131">
+        <v>12.75</v>
+      </c>
+      <c r="F131">
+        <v>13.59</v>
+      </c>
+      <c r="G131">
         <v>12.71</v>
       </c>
-      <c r="F131">
-        <v>13.35</v>
-      </c>
-      <c r="G131">
-        <v>12.53</v>
-      </c>
       <c r="H131">
-        <v>6800</v>
+        <v>7650</v>
       </c>
       <c r="I131">
-        <v>9054231.18</v>
+        <v>10428184.28</v>
       </c>
       <c r="J131">
-        <v>6.43</v>
+        <v>6.48</v>
       </c>
       <c r="K131">
-        <v>-0.31</v>
+        <v>-6.11</v>
       </c>
       <c r="L131">
-        <v>-0.04</v>
+        <v>-0.83</v>
       </c>
       <c r="M131">
-        <v>2.28</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>13</v>
-      </c>
-      <c r="B132" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B132">
+        <v>873576</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D132">
-        <v>12.57</v>
+        <v>12.81</v>
       </c>
       <c r="E132">
-        <v>11.52</v>
+        <v>12.71</v>
       </c>
       <c r="F132">
-        <v>12.71</v>
+        <v>13.35</v>
       </c>
       <c r="G132">
-        <v>11.52</v>
+        <v>12.53</v>
       </c>
       <c r="H132">
-        <v>10192</v>
+        <v>6800</v>
       </c>
       <c r="I132">
-        <v>12800620.41</v>
+        <v>9054231.18</v>
       </c>
       <c r="J132">
-        <v>9.359999999999999</v>
+        <v>6.43</v>
       </c>
       <c r="K132">
-        <v>-9.359999999999999</v>
+        <v>-0.31</v>
       </c>
       <c r="L132">
-        <v>-1.19</v>
+        <v>-0.04</v>
       </c>
       <c r="M132">
-        <v>3.42</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B133">
+        <v>873576</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D133">
-        <v>12.38</v>
+        <v>12.57</v>
       </c>
       <c r="E133">
-        <v>12.05</v>
+        <v>11.52</v>
       </c>
       <c r="F133">
-        <v>13.18</v>
+        <v>12.71</v>
       </c>
       <c r="G133">
-        <v>11.92</v>
+        <v>11.52</v>
       </c>
       <c r="H133">
-        <v>15083</v>
+        <v>10192</v>
       </c>
       <c r="I133">
-        <v>19706935.02</v>
+        <v>12800620.41</v>
       </c>
       <c r="J133">
-        <v>10.94</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="K133">
-        <v>4.6</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="L133">
-        <v>0.53</v>
+        <v>-1.19</v>
       </c>
       <c r="M133">
-        <v>5.06</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B134">
+        <v>873576</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D134">
-        <v>11.95</v>
+        <v>12.38</v>
       </c>
       <c r="E134">
-        <v>12.89</v>
+        <v>12.05</v>
       </c>
       <c r="F134">
-        <v>12.93</v>
+        <v>13.18</v>
       </c>
       <c r="G134">
-        <v>11.63</v>
+        <v>11.92</v>
       </c>
       <c r="H134">
-        <v>12243</v>
+        <v>15083</v>
       </c>
       <c r="I134">
-        <v>15645048.35</v>
+        <v>19706935.02</v>
       </c>
       <c r="J134">
-        <v>10.79</v>
+        <v>10.94</v>
       </c>
       <c r="K134">
-        <v>6.97</v>
+        <v>4.6</v>
       </c>
       <c r="L134">
-        <v>0.84</v>
+        <v>0.53</v>
       </c>
       <c r="M134">
-        <v>4.11</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B135">
+        <v>873576</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D135">
-        <v>12.71</v>
+        <v>11.95</v>
       </c>
       <c r="E135">
-        <v>13.29</v>
+        <v>12.89</v>
       </c>
       <c r="F135">
-        <v>13.6</v>
+        <v>12.93</v>
       </c>
       <c r="G135">
-        <v>12.6</v>
+        <v>11.63</v>
       </c>
       <c r="H135">
-        <v>13288</v>
+        <v>12243</v>
       </c>
       <c r="I135">
-        <v>18147202.31</v>
+        <v>15645048.35</v>
       </c>
       <c r="J135">
-        <v>7.76</v>
+        <v>10.79</v>
       </c>
       <c r="K135">
-        <v>3.1</v>
+        <v>6.97</v>
       </c>
       <c r="L135">
-        <v>0.4</v>
+        <v>0.84</v>
       </c>
       <c r="M135">
-        <v>4.46</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>13</v>
-      </c>
-      <c r="B136" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B136">
+        <v>873576</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D136">
-        <v>13.3</v>
+        <v>12.71</v>
       </c>
       <c r="E136">
-        <v>13.39</v>
+        <v>13.29</v>
       </c>
       <c r="F136">
         <v>13.6</v>
       </c>
       <c r="G136">
-        <v>13.01</v>
+        <v>12.6</v>
       </c>
       <c r="H136">
-        <v>7333</v>
+        <v>13288</v>
       </c>
       <c r="I136">
-        <v>10080611.96</v>
+        <v>18147202.31</v>
       </c>
       <c r="J136">
-        <v>4.44</v>
+        <v>7.76</v>
       </c>
       <c r="K136">
-        <v>0.75</v>
+        <v>3.1</v>
       </c>
       <c r="L136">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="M136">
-        <v>2.46</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B137">
+        <v>873576</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D137">
-        <v>13.18</v>
+        <v>13.3</v>
       </c>
       <c r="E137">
-        <v>14.02</v>
+        <v>13.39</v>
       </c>
       <c r="F137">
-        <v>14.5</v>
+        <v>13.6</v>
       </c>
       <c r="G137">
-        <v>13.06</v>
+        <v>13.01</v>
       </c>
       <c r="H137">
-        <v>15103</v>
+        <v>7333</v>
       </c>
       <c r="I137">
-        <v>21862198.37</v>
+        <v>10080611.96</v>
       </c>
       <c r="J137">
-        <v>10.75</v>
+        <v>4.44</v>
       </c>
       <c r="K137">
-        <v>4.71</v>
+        <v>0.75</v>
       </c>
       <c r="L137">
-        <v>0.63</v>
+        <v>0.1</v>
       </c>
       <c r="M137">
-        <v>5.07</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>13</v>
-      </c>
-      <c r="B138" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B138">
+        <v>873576</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D138">
-        <v>14.4</v>
+        <v>13.18</v>
       </c>
       <c r="E138">
-        <v>14.98</v>
+        <v>14.02</v>
       </c>
       <c r="F138">
-        <v>15.7</v>
+        <v>14.5</v>
       </c>
       <c r="G138">
-        <v>14.4</v>
+        <v>13.06</v>
       </c>
       <c r="H138">
-        <v>23818</v>
+        <v>15103</v>
       </c>
       <c r="I138">
-        <v>37182503.13</v>
+        <v>21862198.37</v>
       </c>
       <c r="J138">
-        <v>9.27</v>
+        <v>10.75</v>
       </c>
       <c r="K138">
-        <v>6.85</v>
+        <v>4.71</v>
       </c>
       <c r="L138">
-        <v>0.96</v>
+        <v>0.63</v>
       </c>
       <c r="M138">
-        <v>7.99</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>13</v>
-      </c>
-      <c r="B139" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B139">
+        <v>873576</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D139">
-        <v>14.63</v>
+        <v>14.4</v>
       </c>
       <c r="E139">
-        <v>13.77</v>
+        <v>14.98</v>
       </c>
       <c r="F139">
-        <v>14.71</v>
+        <v>15.7</v>
       </c>
       <c r="G139">
-        <v>13.5</v>
+        <v>14.4</v>
       </c>
       <c r="H139">
-        <v>16947</v>
+        <v>23818</v>
       </c>
       <c r="I139">
-        <v>24626729.56</v>
+        <v>37182503.13</v>
       </c>
       <c r="J139">
-        <v>8.08</v>
+        <v>9.27</v>
       </c>
       <c r="K139">
-        <v>-8.08</v>
+        <v>6.85</v>
       </c>
       <c r="L139">
-        <v>-1.21</v>
+        <v>0.96</v>
       </c>
       <c r="M139">
-        <v>5.68</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>13</v>
-      </c>
-      <c r="B140" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B140">
+        <v>873576</v>
       </c>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D140">
-        <v>13.3</v>
+        <v>14.63</v>
       </c>
       <c r="E140">
-        <v>13.58</v>
+        <v>13.77</v>
       </c>
       <c r="F140">
-        <v>13.83</v>
+        <v>14.71</v>
       </c>
       <c r="G140">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="H140">
-        <v>4919</v>
+        <v>16947</v>
       </c>
       <c r="I140">
-        <v>6942998.71</v>
+        <v>24626729.56</v>
       </c>
       <c r="J140">
-        <v>3.85</v>
+        <v>8.08</v>
       </c>
       <c r="K140">
-        <v>-1.38</v>
+        <v>-8.08</v>
       </c>
       <c r="L140">
-        <v>-0.19</v>
+        <v>-1.21</v>
       </c>
       <c r="M140">
-        <v>1.65</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>13</v>
-      </c>
-      <c r="B141" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B141">
+        <v>873576</v>
       </c>
       <c r="C141" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D141">
-        <v>13.45</v>
+        <v>13.3</v>
       </c>
       <c r="E141">
-        <v>12.89</v>
+        <v>13.58</v>
       </c>
       <c r="F141">
-        <v>13.67</v>
+        <v>13.83</v>
       </c>
       <c r="G141">
-        <v>12.88</v>
+        <v>13.3</v>
       </c>
       <c r="H141">
-        <v>6536</v>
+        <v>4919</v>
       </c>
       <c r="I141">
-        <v>8959312.16</v>
+        <v>6942998.71</v>
       </c>
       <c r="J141">
-        <v>5.82</v>
+        <v>3.85</v>
       </c>
       <c r="K141">
-        <v>-5.08</v>
+        <v>-1.38</v>
       </c>
       <c r="L141">
-        <v>-0.6899999999999999</v>
+        <v>-0.19</v>
       </c>
       <c r="M141">
-        <v>2.19</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>13</v>
-      </c>
-      <c r="B142" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B142">
+        <v>873576</v>
       </c>
       <c r="C142" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D142">
-        <v>12.9</v>
+        <v>13.45</v>
       </c>
       <c r="E142">
-        <v>13.16</v>
+        <v>12.89</v>
       </c>
       <c r="F142">
-        <v>13.55</v>
+        <v>13.67</v>
       </c>
       <c r="G142">
-        <v>12.85</v>
+        <v>12.88</v>
       </c>
       <c r="H142">
-        <v>4967</v>
+        <v>6536</v>
       </c>
       <c r="I142">
-        <v>6864583.89</v>
+        <v>8959312.16</v>
       </c>
       <c r="J142">
-        <v>5.43</v>
+        <v>5.82</v>
       </c>
       <c r="K142">
-        <v>2.09</v>
+        <v>-5.08</v>
       </c>
       <c r="L142">
-        <v>0.27</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="M142">
-        <v>1.67</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>13</v>
-      </c>
-      <c r="B143" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B143">
+        <v>873576</v>
       </c>
       <c r="C143" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D143">
-        <v>13.25</v>
+        <v>12.9</v>
       </c>
       <c r="E143">
-        <v>12.95</v>
+        <v>13.16</v>
       </c>
       <c r="F143">
-        <v>13.25</v>
+        <v>13.55</v>
       </c>
       <c r="G143">
-        <v>12.5</v>
+        <v>12.85</v>
       </c>
       <c r="H143">
-        <v>4077</v>
+        <v>4967</v>
       </c>
       <c r="I143">
-        <v>5453090.09</v>
+        <v>6864583.89</v>
       </c>
       <c r="J143">
-        <v>5.7</v>
+        <v>5.43</v>
       </c>
       <c r="K143">
-        <v>-1.6</v>
+        <v>2.09</v>
       </c>
       <c r="L143">
-        <v>-0.21</v>
+        <v>0.27</v>
       </c>
       <c r="M143">
-        <v>1.37</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>13</v>
-      </c>
-      <c r="B144" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B144">
+        <v>873576</v>
       </c>
       <c r="C144" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D144">
-        <v>12.83</v>
+        <v>13.25</v>
       </c>
       <c r="E144">
-        <v>12.78</v>
+        <v>12.95</v>
       </c>
       <c r="F144">
-        <v>12.94</v>
+        <v>13.25</v>
       </c>
       <c r="G144">
-        <v>12.68</v>
+        <v>12.5</v>
       </c>
       <c r="H144">
-        <v>3017</v>
+        <v>4077</v>
       </c>
       <c r="I144">
-        <v>4013423.48</v>
+        <v>5453090.09</v>
       </c>
       <c r="J144">
-        <v>2.01</v>
+        <v>5.7</v>
       </c>
       <c r="K144">
-        <v>-1.31</v>
+        <v>-1.6</v>
       </c>
       <c r="L144">
-        <v>-0.17</v>
+        <v>-0.21</v>
       </c>
       <c r="M144">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>13</v>
-      </c>
-      <c r="B145" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B145">
+        <v>873576</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D145">
-        <v>12.85</v>
+        <v>12.83</v>
       </c>
       <c r="E145">
-        <v>12.42</v>
+        <v>12.78</v>
       </c>
       <c r="F145">
-        <v>12.85</v>
+        <v>12.94</v>
       </c>
       <c r="G145">
-        <v>12.22</v>
+        <v>12.68</v>
       </c>
       <c r="H145">
-        <v>5817</v>
+        <v>3017</v>
       </c>
       <c r="I145">
-        <v>7510282.05</v>
+        <v>4013423.48</v>
       </c>
       <c r="J145">
-        <v>4.93</v>
+        <v>2.01</v>
       </c>
       <c r="K145">
-        <v>-2.82</v>
+        <v>-1.31</v>
       </c>
       <c r="L145">
-        <v>-0.36</v>
+        <v>-0.17</v>
       </c>
       <c r="M145">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>13</v>
-      </c>
-      <c r="B146" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B146">
+        <v>873576</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D146">
-        <v>12.38</v>
+        <v>12.85</v>
       </c>
       <c r="E146">
-        <v>12.2</v>
+        <v>12.42</v>
       </c>
       <c r="F146">
-        <v>12.39</v>
+        <v>12.85</v>
       </c>
       <c r="G146">
-        <v>12.02</v>
+        <v>12.22</v>
       </c>
       <c r="H146">
-        <v>4181</v>
+        <v>5817</v>
       </c>
       <c r="I146">
-        <v>5293808.77</v>
+        <v>7510282.05</v>
       </c>
       <c r="J146">
-        <v>2.98</v>
+        <v>4.93</v>
       </c>
       <c r="K146">
-        <v>-1.77</v>
+        <v>-2.82</v>
       </c>
       <c r="L146">
-        <v>-0.22</v>
+        <v>-0.36</v>
       </c>
       <c r="M146">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>13</v>
-      </c>
-      <c r="B147" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B147">
+        <v>873576</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D147">
+        <v>12.38</v>
+      </c>
+      <c r="E147">
         <v>12.2</v>
       </c>
-      <c r="E147">
-        <v>12.69</v>
-      </c>
       <c r="F147">
-        <v>12.77</v>
+        <v>12.39</v>
       </c>
       <c r="G147">
-        <v>12.06</v>
+        <v>12.02</v>
       </c>
       <c r="H147">
-        <v>4510</v>
+        <v>4181</v>
       </c>
       <c r="I147">
-        <v>5879341.36</v>
+        <v>5293808.77</v>
       </c>
       <c r="J147">
-        <v>5.82</v>
+        <v>2.98</v>
       </c>
       <c r="K147">
-        <v>4.02</v>
+        <v>-1.77</v>
       </c>
       <c r="L147">
-        <v>0.49</v>
+        <v>-0.22</v>
       </c>
       <c r="M147">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>13</v>
-      </c>
-      <c r="B148" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B148">
+        <v>873576</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D148">
-        <v>12.7</v>
+        <v>12.2</v>
       </c>
       <c r="E148">
-        <v>12.81</v>
+        <v>12.69</v>
       </c>
       <c r="F148">
-        <v>13.04</v>
+        <v>12.77</v>
       </c>
       <c r="G148">
-        <v>12.44</v>
+        <v>12.06</v>
       </c>
       <c r="H148">
-        <v>2834</v>
+        <v>4510</v>
       </c>
       <c r="I148">
-        <v>3756735.98</v>
+        <v>5879341.36</v>
       </c>
       <c r="J148">
-        <v>4.73</v>
+        <v>5.82</v>
       </c>
       <c r="K148">
-        <v>0.95</v>
+        <v>4.02</v>
       </c>
       <c r="L148">
-        <v>0.12</v>
+        <v>0.49</v>
       </c>
       <c r="M148">
-        <v>0.95</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>13</v>
-      </c>
-      <c r="B149" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B149">
+        <v>873576</v>
       </c>
       <c r="C149" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D149">
         <v>12.7</v>
       </c>
       <c r="E149">
-        <v>12.85</v>
+        <v>12.81</v>
       </c>
       <c r="F149">
-        <v>13.17</v>
+        <v>13.04</v>
       </c>
       <c r="G149">
-        <v>12.68</v>
+        <v>12.44</v>
       </c>
       <c r="H149">
-        <v>3055</v>
+        <v>2834</v>
       </c>
       <c r="I149">
-        <v>4116808.21</v>
+        <v>3756735.98</v>
       </c>
       <c r="J149">
-        <v>3.83</v>
+        <v>4.73</v>
       </c>
       <c r="K149">
-        <v>0.31</v>
+        <v>0.95</v>
       </c>
       <c r="L149">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="M149">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" t="s">
-        <v>13</v>
-      </c>
-      <c r="B150" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B150">
+        <v>873576</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D150">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="E150">
-        <v>13.49</v>
+        <v>12.85</v>
       </c>
       <c r="F150">
-        <v>14.35</v>
+        <v>13.17</v>
       </c>
       <c r="G150">
-        <v>12.95</v>
+        <v>12.68</v>
       </c>
       <c r="H150">
-        <v>7435</v>
+        <v>3055</v>
       </c>
       <c r="I150">
-        <v>10526438.41</v>
+        <v>4116808.21</v>
       </c>
       <c r="J150">
-        <v>10.89</v>
+        <v>3.83</v>
       </c>
       <c r="K150">
-        <v>4.98</v>
+        <v>0.31</v>
       </c>
       <c r="L150">
-        <v>0.64</v>
+        <v>0.04</v>
       </c>
       <c r="M150">
-        <v>2.49</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151">
+        <v>873576</v>
+      </c>
+      <c r="C151" t="s">
+        <v>171</v>
+      </c>
+      <c r="D151">
         <v>13</v>
       </c>
-      <c r="B151" t="s">
-        <v>14</v>
-      </c>
-      <c r="C151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D151">
-        <v>13.69</v>
-      </c>
       <c r="E151">
-        <v>13.3</v>
+        <v>13.49</v>
       </c>
       <c r="F151">
-        <v>13.69</v>
+        <v>14.35</v>
       </c>
       <c r="G151">
-        <v>13.05</v>
+        <v>12.95</v>
       </c>
       <c r="H151">
-        <v>3159</v>
+        <v>7435</v>
       </c>
       <c r="I151">
-        <v>4356888.62</v>
+        <v>10526438.41</v>
       </c>
       <c r="J151">
-        <v>4.74</v>
+        <v>10.89</v>
       </c>
       <c r="K151">
-        <v>-1.41</v>
+        <v>4.98</v>
       </c>
       <c r="L151">
-        <v>-0.19</v>
+        <v>0.64</v>
       </c>
       <c r="M151">
-        <v>1.06</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" t="s">
-        <v>13</v>
-      </c>
-      <c r="B152" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B152">
+        <v>873576</v>
       </c>
       <c r="C152" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D152">
-        <v>13.12</v>
+        <v>13.69</v>
       </c>
       <c r="E152">
-        <v>13.36</v>
+        <v>13.3</v>
       </c>
       <c r="F152">
-        <v>13.47</v>
+        <v>13.69</v>
       </c>
       <c r="G152">
-        <v>13.06</v>
+        <v>13.05</v>
       </c>
       <c r="H152">
-        <v>4302</v>
+        <v>3159</v>
       </c>
       <c r="I152">
-        <v>5929393.11</v>
+        <v>4356888.62</v>
       </c>
       <c r="J152">
-        <v>3.08</v>
+        <v>4.74</v>
       </c>
       <c r="K152">
-        <v>0.45</v>
+        <v>-1.41</v>
       </c>
       <c r="L152">
-        <v>0.06</v>
+        <v>-0.19</v>
       </c>
       <c r="M152">
-        <v>1.44</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" t="s">
-        <v>13</v>
-      </c>
-      <c r="B153" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B153">
+        <v>873576</v>
       </c>
       <c r="C153" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D153">
-        <v>13.79</v>
+        <v>13.12</v>
       </c>
       <c r="E153">
-        <v>13.18</v>
+        <v>13.36</v>
       </c>
       <c r="F153">
-        <v>13.79</v>
+        <v>13.47</v>
       </c>
       <c r="G153">
-        <v>13.18</v>
+        <v>13.06</v>
       </c>
       <c r="H153">
-        <v>4079</v>
+        <v>4302</v>
       </c>
       <c r="I153">
-        <v>5618593.95</v>
+        <v>5929393.11</v>
       </c>
       <c r="J153">
-        <v>4.57</v>
+        <v>3.08</v>
       </c>
       <c r="K153">
-        <v>-1.35</v>
+        <v>0.45</v>
       </c>
       <c r="L153">
-        <v>-0.18</v>
+        <v>0.06</v>
       </c>
       <c r="M153">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" t="s">
-        <v>13</v>
-      </c>
-      <c r="B154" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B154">
+        <v>873576</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D154">
-        <v>13.33</v>
+        <v>13.79</v>
       </c>
       <c r="E154">
-        <v>12.76</v>
+        <v>13.18</v>
       </c>
       <c r="F154">
-        <v>13.4</v>
+        <v>13.79</v>
       </c>
       <c r="G154">
-        <v>12.7</v>
+        <v>13.18</v>
       </c>
       <c r="H154">
-        <v>2447</v>
+        <v>4079</v>
       </c>
       <c r="I154">
-        <v>3161453.2</v>
+        <v>5618593.95</v>
       </c>
       <c r="J154">
-        <v>5.31</v>
+        <v>4.57</v>
       </c>
       <c r="K154">
-        <v>-3.19</v>
+        <v>-1.35</v>
       </c>
       <c r="L154">
-        <v>-0.42</v>
+        <v>-0.18</v>
       </c>
       <c r="M154">
-        <v>0.82</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" t="s">
-        <v>13</v>
-      </c>
-      <c r="B155" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B155">
+        <v>873576</v>
       </c>
       <c r="C155" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D155">
-        <v>12.75</v>
+        <v>13.33</v>
       </c>
       <c r="E155">
-        <v>12.53</v>
+        <v>12.76</v>
       </c>
       <c r="F155">
-        <v>12.77</v>
+        <v>13.4</v>
       </c>
       <c r="G155">
-        <v>12.32</v>
+        <v>12.7</v>
       </c>
       <c r="H155">
-        <v>4334</v>
+        <v>2447</v>
       </c>
       <c r="I155">
-        <v>5443985.07</v>
+        <v>3161453.2</v>
       </c>
       <c r="J155">
-        <v>3.53</v>
+        <v>5.31</v>
       </c>
       <c r="K155">
-        <v>-1.8</v>
+        <v>-3.19</v>
       </c>
       <c r="L155">
-        <v>-0.23</v>
+        <v>-0.42</v>
       </c>
       <c r="M155">
-        <v>1.45</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" t="s">
-        <v>13</v>
-      </c>
-      <c r="B156" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B156">
+        <v>873576</v>
       </c>
       <c r="C156" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D156">
-        <v>12.57</v>
+        <v>12.75</v>
       </c>
       <c r="E156">
-        <v>12.65</v>
+        <v>12.53</v>
       </c>
       <c r="F156">
-        <v>12.79</v>
+        <v>12.77</v>
       </c>
       <c r="G156">
-        <v>12.57</v>
+        <v>12.32</v>
       </c>
       <c r="H156">
-        <v>2470</v>
+        <v>4334</v>
       </c>
       <c r="I156">
-        <v>3123847.69</v>
+        <v>5443985.07</v>
       </c>
       <c r="J156">
-        <v>1.76</v>
+        <v>3.53</v>
       </c>
       <c r="K156">
-        <v>0.96</v>
+        <v>-1.8</v>
       </c>
       <c r="L156">
-        <v>0.12</v>
+        <v>-0.23</v>
       </c>
       <c r="M156">
-        <v>0.83</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" t="s">
-        <v>13</v>
-      </c>
-      <c r="B157" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B157">
+        <v>873576</v>
       </c>
       <c r="C157" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D157">
-        <v>12.7</v>
+        <v>12.57</v>
       </c>
       <c r="E157">
+        <v>12.65</v>
+      </c>
+      <c r="F157">
+        <v>12.79</v>
+      </c>
+      <c r="G157">
         <v>12.57</v>
       </c>
-      <c r="F157">
-        <v>12.78</v>
-      </c>
-      <c r="G157">
-        <v>12.54</v>
-      </c>
       <c r="H157">
-        <v>2257</v>
+        <v>2470</v>
       </c>
       <c r="I157">
-        <v>2844763.1</v>
+        <v>3123847.69</v>
       </c>
       <c r="J157">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="K157">
-        <v>-0.63</v>
+        <v>0.96</v>
       </c>
       <c r="L157">
-        <v>-0.08</v>
+        <v>0.12</v>
       </c>
       <c r="M157">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" t="s">
-        <v>13</v>
-      </c>
-      <c r="B158" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B158">
+        <v>873576</v>
       </c>
       <c r="C158" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D158">
-        <v>12.73</v>
+        <v>12.7</v>
       </c>
       <c r="E158">
-        <v>12.34</v>
+        <v>12.57</v>
       </c>
       <c r="F158">
-        <v>12.73</v>
+        <v>12.78</v>
       </c>
       <c r="G158">
-        <v>12.28</v>
+        <v>12.54</v>
       </c>
       <c r="H158">
-        <v>2557</v>
+        <v>2257</v>
       </c>
       <c r="I158">
-        <v>3171868.21</v>
+        <v>2844763.1</v>
       </c>
       <c r="J158">
-        <v>3.58</v>
+        <v>1.9</v>
       </c>
       <c r="K158">
-        <v>-1.83</v>
+        <v>-0.63</v>
       </c>
       <c r="L158">
-        <v>-0.23</v>
+        <v>-0.08</v>
       </c>
       <c r="M158">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" t="s">
-        <v>13</v>
-      </c>
-      <c r="B159" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B159">
+        <v>873576</v>
       </c>
       <c r="C159" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D159">
-        <v>12.12</v>
+        <v>12.73</v>
       </c>
       <c r="E159">
-        <v>12.32</v>
+        <v>12.34</v>
       </c>
       <c r="F159">
-        <v>12.42</v>
+        <v>12.73</v>
       </c>
       <c r="G159">
-        <v>12.12</v>
+        <v>12.28</v>
       </c>
       <c r="H159">
-        <v>2218</v>
+        <v>2557</v>
       </c>
       <c r="I159">
-        <v>2720672.1</v>
+        <v>3171868.21</v>
       </c>
       <c r="J159">
-        <v>2.43</v>
+        <v>3.58</v>
       </c>
       <c r="K159">
-        <v>-0.16</v>
+        <v>-1.83</v>
       </c>
       <c r="L159">
-        <v>-0.02</v>
+        <v>-0.23</v>
       </c>
       <c r="M159">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" t="s">
-        <v>13</v>
-      </c>
-      <c r="B160" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B160">
+        <v>873576</v>
       </c>
       <c r="C160" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D160">
-        <v>12.13</v>
+        <v>12.12</v>
       </c>
       <c r="E160">
-        <v>12.28</v>
+        <v>12.32</v>
       </c>
       <c r="F160">
-        <v>12.5</v>
+        <v>12.42</v>
       </c>
       <c r="G160">
-        <v>12.13</v>
+        <v>12.12</v>
       </c>
       <c r="H160">
-        <v>1620</v>
+        <v>2218</v>
       </c>
       <c r="I160">
-        <v>2004502.1</v>
+        <v>2720672.1</v>
       </c>
       <c r="J160">
-        <v>3</v>
+        <v>2.43</v>
       </c>
       <c r="K160">
-        <v>-0.32</v>
+        <v>-0.16</v>
       </c>
       <c r="L160">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="M160">
-        <v>0.54</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" t="s">
-        <v>13</v>
-      </c>
-      <c r="B161" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B161">
+        <v>873576</v>
       </c>
       <c r="C161" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D161">
-        <v>12.46</v>
+        <v>12.13</v>
       </c>
       <c r="E161">
-        <v>12.12</v>
+        <v>12.28</v>
       </c>
       <c r="F161">
-        <v>12.46</v>
+        <v>12.5</v>
       </c>
       <c r="G161">
-        <v>12.12</v>
+        <v>12.13</v>
       </c>
       <c r="H161">
-        <v>1720</v>
+        <v>1620</v>
       </c>
       <c r="I161">
-        <v>2095849.66</v>
+        <v>2004502.1</v>
       </c>
       <c r="J161">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="K161">
-        <v>-1.3</v>
+        <v>-0.32</v>
       </c>
       <c r="L161">
-        <v>-0.16</v>
+        <v>-0.04</v>
       </c>
       <c r="M161">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" t="s">
-        <v>13</v>
-      </c>
-      <c r="B162" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B162">
+        <v>873576</v>
       </c>
       <c r="C162" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D162">
         <v>12.46</v>
       </c>
       <c r="E162">
-        <v>12.22</v>
+        <v>12.12</v>
       </c>
       <c r="F162">
-        <v>12.48</v>
+        <v>12.46</v>
       </c>
       <c r="G162">
-        <v>12.06</v>
+        <v>12.12</v>
       </c>
       <c r="H162">
-        <v>1861</v>
+        <v>1720</v>
       </c>
       <c r="I162">
-        <v>2258004</v>
+        <v>2095849.66</v>
       </c>
       <c r="J162">
-        <v>3.47</v>
+        <v>2.77</v>
       </c>
       <c r="K162">
-        <v>0.83</v>
+        <v>-1.3</v>
       </c>
       <c r="L162">
-        <v>0.1</v>
+        <v>-0.16</v>
       </c>
       <c r="M162">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" t="s">
-        <v>13</v>
-      </c>
-      <c r="B163" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B163">
+        <v>873576</v>
       </c>
       <c r="C163" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D163">
-        <v>12.25</v>
+        <v>12.46</v>
       </c>
       <c r="E163">
         <v>12.22</v>
       </c>
       <c r="F163">
-        <v>12.25</v>
+        <v>12.48</v>
       </c>
       <c r="G163">
-        <v>12.1</v>
+        <v>12.06</v>
       </c>
       <c r="H163">
-        <v>1273</v>
+        <v>1861</v>
       </c>
       <c r="I163">
-        <v>1546875.62</v>
+        <v>2258004</v>
       </c>
       <c r="J163">
-        <v>1.23</v>
+        <v>3.47</v>
       </c>
       <c r="K163">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="L163">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M163">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" t="s">
-        <v>13</v>
-      </c>
-      <c r="B164" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B164">
+        <v>873576</v>
       </c>
       <c r="C164" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D164">
-        <v>12.3</v>
+        <v>12.25</v>
       </c>
       <c r="E164">
-        <v>11.92</v>
+        <v>12.22</v>
       </c>
       <c r="F164">
-        <v>12.3</v>
+        <v>12.25</v>
       </c>
       <c r="G164">
-        <v>11.87</v>
+        <v>12.1</v>
       </c>
       <c r="H164">
-        <v>1888</v>
+        <v>1273</v>
       </c>
       <c r="I164">
-        <v>2261484.52</v>
+        <v>1546875.62</v>
       </c>
       <c r="J164">
-        <v>3.52</v>
+        <v>1.23</v>
       </c>
       <c r="K164">
-        <v>-2.45</v>
+        <v>0</v>
       </c>
       <c r="L164">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="M164">
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" t="s">
-        <v>13</v>
-      </c>
-      <c r="B165" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B165">
+        <v>873576</v>
       </c>
       <c r="C165" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D165">
-        <v>11.84</v>
+        <v>12.3</v>
       </c>
       <c r="E165">
-        <v>11.95</v>
+        <v>11.92</v>
       </c>
       <c r="F165">
-        <v>12.02</v>
+        <v>12.3</v>
       </c>
       <c r="G165">
-        <v>11.84</v>
+        <v>11.87</v>
       </c>
       <c r="H165">
-        <v>1052</v>
+        <v>1888</v>
       </c>
       <c r="I165">
-        <v>1252102.56</v>
+        <v>2261484.52</v>
       </c>
       <c r="J165">
-        <v>1.51</v>
+        <v>3.52</v>
       </c>
       <c r="K165">
-        <v>0.25</v>
+        <v>-2.45</v>
       </c>
       <c r="L165">
-        <v>0.03</v>
+        <v>-0.3</v>
       </c>
       <c r="M165">
-        <v>0.35</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" t="s">
-        <v>13</v>
-      </c>
-      <c r="B166" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B166">
+        <v>873576</v>
       </c>
       <c r="C166" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D166">
-        <v>11.82</v>
+        <v>11.84</v>
       </c>
       <c r="E166">
-        <v>11.88</v>
+        <v>11.95</v>
       </c>
       <c r="F166">
-        <v>12.04</v>
+        <v>12.02</v>
       </c>
       <c r="G166">
-        <v>11.8</v>
+        <v>11.84</v>
       </c>
       <c r="H166">
-        <v>2476</v>
+        <v>1052</v>
       </c>
       <c r="I166">
-        <v>2940109.7</v>
+        <v>1252102.56</v>
       </c>
       <c r="J166">
-        <v>2.01</v>
+        <v>1.51</v>
       </c>
       <c r="K166">
-        <v>-0.59</v>
+        <v>0.25</v>
       </c>
       <c r="L166">
-        <v>-0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="M166">
-        <v>0.83</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" t="s">
-        <v>13</v>
-      </c>
-      <c r="B167" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B167">
+        <v>873576</v>
       </c>
       <c r="C167" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D167">
-        <v>11.81</v>
+        <v>11.82</v>
       </c>
       <c r="E167">
-        <v>11.48</v>
+        <v>11.88</v>
       </c>
       <c r="F167">
-        <v>11.81</v>
+        <v>12.04</v>
       </c>
       <c r="G167">
-        <v>11.41</v>
+        <v>11.8</v>
       </c>
       <c r="H167">
-        <v>1396</v>
+        <v>2476</v>
       </c>
       <c r="I167">
-        <v>1624842.83</v>
+        <v>2940109.7</v>
       </c>
       <c r="J167">
-        <v>3.37</v>
+        <v>2.01</v>
       </c>
       <c r="K167">
-        <v>-3.37</v>
+        <v>-0.59</v>
       </c>
       <c r="L167">
-        <v>-0.4</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M167">
-        <v>0.47</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" t="s">
-        <v>13</v>
-      </c>
-      <c r="B168" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B168">
+        <v>873576</v>
       </c>
       <c r="C168" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D168">
-        <v>11.5</v>
+        <v>11.81</v>
       </c>
       <c r="E168">
-        <v>11.62</v>
+        <v>11.48</v>
       </c>
       <c r="F168">
-        <v>11.73</v>
+        <v>11.81</v>
       </c>
       <c r="G168">
-        <v>11</v>
+        <v>11.41</v>
       </c>
       <c r="H168">
-        <v>1770</v>
+        <v>1396</v>
       </c>
       <c r="I168">
-        <v>2010183.6</v>
+        <v>1624842.83</v>
       </c>
       <c r="J168">
-        <v>6.36</v>
+        <v>3.37</v>
       </c>
       <c r="K168">
-        <v>1.22</v>
+        <v>-3.37</v>
       </c>
       <c r="L168">
-        <v>0.14</v>
+        <v>-0.4</v>
       </c>
       <c r="M168">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" t="s">
-        <v>13</v>
-      </c>
-      <c r="B169" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B169">
+        <v>873576</v>
       </c>
       <c r="C169" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D169">
-        <v>11.54</v>
+        <v>11.5</v>
       </c>
       <c r="E169">
-        <v>11.55</v>
+        <v>11.62</v>
       </c>
       <c r="F169">
-        <v>11.7</v>
+        <v>11.73</v>
       </c>
       <c r="G169">
-        <v>11.33</v>
+        <v>11</v>
       </c>
       <c r="H169">
-        <v>2163</v>
+        <v>1770</v>
       </c>
       <c r="I169">
-        <v>2487012.58</v>
+        <v>2010183.6</v>
       </c>
       <c r="J169">
-        <v>3.18</v>
+        <v>6.36</v>
       </c>
       <c r="K169">
-        <v>-0.6</v>
+        <v>1.22</v>
       </c>
       <c r="L169">
-        <v>-0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="M169">
-        <v>0.73</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" t="s">
-        <v>13</v>
-      </c>
-      <c r="B170" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B170">
+        <v>873576</v>
       </c>
       <c r="C170" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D170">
-        <v>11.31</v>
+        <v>11.54</v>
       </c>
       <c r="E170">
-        <v>12.29</v>
+        <v>11.55</v>
       </c>
       <c r="F170">
-        <v>12.37</v>
+        <v>11.7</v>
       </c>
       <c r="G170">
-        <v>11.3</v>
+        <v>11.33</v>
       </c>
       <c r="H170">
-        <v>4538</v>
+        <v>2163</v>
       </c>
       <c r="I170">
-        <v>5431238.28</v>
+        <v>2487012.58</v>
       </c>
       <c r="J170">
-        <v>9.26</v>
+        <v>3.18</v>
       </c>
       <c r="K170">
-        <v>6.41</v>
+        <v>-0.6</v>
       </c>
       <c r="L170">
-        <v>0.74</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M170">
-        <v>1.52</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" t="s">
-        <v>13</v>
-      </c>
-      <c r="B171" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B171">
+        <v>873576</v>
       </c>
       <c r="C171" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D171">
-        <v>11.85</v>
+        <v>11.31</v>
       </c>
       <c r="E171">
-        <v>13.22</v>
+        <v>12.29</v>
       </c>
       <c r="F171">
-        <v>14.1</v>
+        <v>12.37</v>
       </c>
       <c r="G171">
-        <v>11.85</v>
+        <v>11.3</v>
       </c>
       <c r="H171">
-        <v>10455</v>
+        <v>4538</v>
       </c>
       <c r="I171">
-        <v>13700445.37</v>
+        <v>5431238.28</v>
       </c>
       <c r="J171">
-        <v>18.31</v>
+        <v>9.26</v>
       </c>
       <c r="K171">
-        <v>7.57</v>
+        <v>6.41</v>
       </c>
       <c r="L171">
-        <v>0.93</v>
+        <v>0.74</v>
       </c>
       <c r="M171">
-        <v>3.51</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" t="s">
-        <v>13</v>
-      </c>
-      <c r="B172" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B172">
+        <v>873576</v>
       </c>
       <c r="C172" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D172">
-        <v>13.03</v>
+        <v>11.85</v>
       </c>
       <c r="E172">
-        <v>13.4</v>
+        <v>13.22</v>
       </c>
       <c r="F172">
-        <v>13.79</v>
+        <v>14.1</v>
       </c>
       <c r="G172">
-        <v>12.85</v>
+        <v>11.85</v>
       </c>
       <c r="H172">
-        <v>7007</v>
+        <v>10455</v>
       </c>
       <c r="I172">
-        <v>9411010.52</v>
+        <v>13700445.37</v>
       </c>
       <c r="J172">
-        <v>7.11</v>
+        <v>18.31</v>
       </c>
       <c r="K172">
-        <v>1.36</v>
+        <v>7.57</v>
       </c>
       <c r="L172">
-        <v>0.18</v>
+        <v>0.93</v>
       </c>
       <c r="M172">
-        <v>2.35</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" t="s">
-        <v>13</v>
-      </c>
-      <c r="B173" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B173">
+        <v>873576</v>
       </c>
       <c r="C173" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D173">
-        <v>13.68</v>
+        <v>13.03</v>
       </c>
       <c r="E173">
-        <v>14.1</v>
+        <v>13.4</v>
       </c>
       <c r="F173">
-        <v>14.8</v>
+        <v>13.79</v>
       </c>
       <c r="G173">
-        <v>13.31</v>
+        <v>12.85</v>
       </c>
       <c r="H173">
-        <v>15348</v>
+        <v>7007</v>
       </c>
       <c r="I173">
-        <v>21559895.17</v>
+        <v>9411010.52</v>
       </c>
       <c r="J173">
-        <v>11.12</v>
+        <v>7.11</v>
       </c>
       <c r="K173">
-        <v>5.22</v>
+        <v>1.36</v>
       </c>
       <c r="L173">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
       <c r="M173">
-        <v>5.15</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" t="s">
-        <v>13</v>
-      </c>
-      <c r="B174" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B174">
+        <v>873576</v>
       </c>
       <c r="C174" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D174">
-        <v>14.28</v>
+        <v>13.68</v>
       </c>
       <c r="E174">
-        <v>13.73</v>
+        <v>14.1</v>
       </c>
       <c r="F174">
         <v>14.8</v>
       </c>
       <c r="G174">
-        <v>13.68</v>
+        <v>13.31</v>
       </c>
       <c r="H174">
-        <v>10097</v>
+        <v>15348</v>
       </c>
       <c r="I174">
-        <v>14410914.17</v>
+        <v>21559895.17</v>
       </c>
       <c r="J174">
-        <v>7.94</v>
+        <v>11.12</v>
       </c>
       <c r="K174">
-        <v>-2.62</v>
+        <v>5.22</v>
       </c>
       <c r="L174">
-        <v>-0.37</v>
+        <v>0.7</v>
       </c>
       <c r="M174">
-        <v>3.39</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" t="s">
-        <v>13</v>
-      </c>
-      <c r="B175" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B175">
+        <v>873576</v>
       </c>
       <c r="C175" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D175">
-        <v>13.75</v>
+        <v>14.28</v>
       </c>
       <c r="E175">
-        <v>13.57</v>
+        <v>13.73</v>
       </c>
       <c r="F175">
-        <v>13.88</v>
+        <v>14.8</v>
       </c>
       <c r="G175">
-        <v>13.02</v>
+        <v>13.68</v>
       </c>
       <c r="H175">
-        <v>7204</v>
+        <v>10097</v>
       </c>
       <c r="I175">
-        <v>9676235.189999999</v>
+        <v>14410914.17</v>
       </c>
       <c r="J175">
-        <v>6.26</v>
+        <v>7.94</v>
       </c>
       <c r="K175">
-        <v>-1.17</v>
+        <v>-2.62</v>
       </c>
       <c r="L175">
-        <v>-0.16</v>
+        <v>-0.37</v>
       </c>
       <c r="M175">
-        <v>2.42</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" t="s">
-        <v>13</v>
-      </c>
-      <c r="B176" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B176">
+        <v>873576</v>
       </c>
       <c r="C176" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D176">
+        <v>13.75</v>
+      </c>
+      <c r="E176">
+        <v>13.57</v>
+      </c>
+      <c r="F176">
+        <v>13.88</v>
+      </c>
+      <c r="G176">
+        <v>13.02</v>
+      </c>
+      <c r="H176">
+        <v>7204</v>
+      </c>
+      <c r="I176">
+        <v>9676235.189999999</v>
+      </c>
+      <c r="J176">
+        <v>6.26</v>
+      </c>
+      <c r="K176">
+        <v>-1.17</v>
+      </c>
+      <c r="L176">
+        <v>-0.16</v>
+      </c>
+      <c r="M176">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177">
+        <v>873576</v>
+      </c>
+      <c r="C177" t="s">
+        <v>197</v>
+      </c>
+      <c r="D177">
         <v>13.2</v>
       </c>
-      <c r="E176">
+      <c r="E177">
         <v>14.03</v>
       </c>
-      <c r="F176">
+      <c r="F177">
         <v>14.19</v>
       </c>
-      <c r="G176">
+      <c r="G177">
         <v>13.2</v>
       </c>
-      <c r="H176">
+      <c r="H177">
         <v>6991</v>
       </c>
-      <c r="I176">
+      <c r="I177">
         <v>9702747.84</v>
       </c>
-      <c r="J176">
+      <c r="J177">
         <v>7.3</v>
       </c>
-      <c r="K176">
+      <c r="K177">
         <v>3.39</v>
       </c>
-      <c r="L176">
+      <c r="L177">
         <v>0.46</v>
       </c>
-      <c r="M176">
+      <c r="M177">
         <v>2.34</v>
       </c>
     </row>
